--- a/database/industries/kashi/kazar/cost/quarterly.xlsx
+++ b/database/industries/kashi/kazar/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kazar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B691C686-753E-4C85-B691-EB3872685AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3200684-3976-4A8E-AD7B-772989DCEE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -151,10 +166,10 @@
     <t>تن / ریال</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>نرخ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>نرخ مصرف طی دوره</t>
@@ -727,16 +742,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I222"/>
+  <dimension ref="B1:N222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,8 +760,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,8 +777,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -769,8 +794,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -779,8 +809,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -791,8 +826,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -803,8 +843,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -813,8 +858,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -835,8 +885,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -845,98 +910,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>50221</v>
+      </c>
+      <c r="F10" s="9">
+        <v>60067</v>
+      </c>
+      <c r="G10" s="9">
+        <v>81549</v>
+      </c>
+      <c r="H10" s="9">
+        <v>64288</v>
+      </c>
+      <c r="I10" s="9">
+        <v>24549</v>
+      </c>
+      <c r="J10" s="9">
         <v>54062</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>167095</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>122186</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>99578</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>234993</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>51719</v>
+      </c>
+      <c r="F11" s="11">
+        <v>66022</v>
+      </c>
+      <c r="G11" s="11">
+        <v>83132</v>
+      </c>
+      <c r="H11" s="11">
+        <v>82387</v>
+      </c>
+      <c r="I11" s="11">
+        <v>74680</v>
+      </c>
+      <c r="J11" s="11">
         <v>30537</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>151740</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>182489</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>78976</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>75735</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>169309</v>
+      </c>
+      <c r="F12" s="9">
+        <v>180755</v>
+      </c>
+      <c r="G12" s="9">
+        <v>223622</v>
+      </c>
+      <c r="H12" s="9">
+        <v>291611</v>
+      </c>
+      <c r="I12" s="9">
+        <v>247542</v>
+      </c>
+      <c r="J12" s="9">
         <v>293463</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>269500</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>439370</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>508315</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>627500</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>271249</v>
+      </c>
+      <c r="F13" s="13">
+        <v>306844</v>
+      </c>
+      <c r="G13" s="13">
+        <v>388303</v>
+      </c>
+      <c r="H13" s="13">
+        <v>438286</v>
+      </c>
+      <c r="I13" s="13">
+        <v>346771</v>
+      </c>
+      <c r="J13" s="13">
         <v>378062</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>588335</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>744045</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>686869</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>938228</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -955,54 +1085,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>271249</v>
+      </c>
+      <c r="F15" s="13">
+        <v>306844</v>
+      </c>
+      <c r="G15" s="13">
+        <v>388303</v>
+      </c>
+      <c r="H15" s="13">
+        <v>438286</v>
+      </c>
+      <c r="I15" s="13">
+        <v>346771</v>
+      </c>
+      <c r="J15" s="13">
         <v>378062</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>588335</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>744045</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>686869</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>938228</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>3324</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-10203</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-9921</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-1629</v>
+      </c>
+      <c r="I16" s="9">
+        <v>17855</v>
+      </c>
+      <c r="J16" s="9">
         <v>2434</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>1444</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>13757</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-23917</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-139297</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1021,32 +1196,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>274573</v>
+      </c>
+      <c r="F18" s="15">
+        <v>296641</v>
+      </c>
+      <c r="G18" s="15">
+        <v>378382</v>
+      </c>
+      <c r="H18" s="15">
+        <v>436657</v>
+      </c>
+      <c r="I18" s="15">
+        <v>364626</v>
+      </c>
+      <c r="J18" s="15">
         <v>380496</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>589779</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>757802</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>662952</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>798931</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1054,73 +1259,118 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>114792</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>771</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>115039</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>165000</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>214700</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>21989</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-17865</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-9817</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-92027</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-17626</v>
+      </c>
+      <c r="J20" s="9">
         <v>771</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-115039</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-165000</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-214700</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-327582</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>296562</v>
+      </c>
+      <c r="F21" s="13">
+        <v>278776</v>
+      </c>
+      <c r="G21" s="13">
+        <v>368565</v>
+      </c>
+      <c r="H21" s="13">
+        <v>459422</v>
+      </c>
+      <c r="I21" s="13">
+        <v>347000</v>
+      </c>
+      <c r="J21" s="13">
         <v>381267</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>583622</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>707841</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>613252</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>686049</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>7659</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>-7659</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -1131,30 +1381,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>304221</v>
+      </c>
+      <c r="F23" s="13">
+        <v>271117</v>
+      </c>
+      <c r="G23" s="13">
+        <v>368565</v>
+      </c>
+      <c r="H23" s="13">
+        <v>459422</v>
+      </c>
+      <c r="I23" s="13">
+        <v>347000</v>
+      </c>
+      <c r="J23" s="13">
         <v>381267</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>583622</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>707841</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>613252</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>686049</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1163,8 +1443,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1173,8 +1458,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1183,10 +1473,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1205,8 +1500,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1215,85 +1525,135 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>106</v>
+      </c>
+      <c r="F29" s="9">
+        <v>101</v>
+      </c>
+      <c r="G29" s="9">
+        <v>133</v>
+      </c>
+      <c r="H29" s="9">
+        <v>125</v>
+      </c>
+      <c r="I29" s="9">
+        <v>125</v>
+      </c>
+      <c r="J29" s="9">
         <v>126</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>109</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>106</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>95</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>49682</v>
+      </c>
+      <c r="F30" s="11">
+        <v>33183</v>
+      </c>
+      <c r="G30" s="11">
+        <v>33732</v>
+      </c>
+      <c r="H30" s="11">
+        <v>21358</v>
+      </c>
+      <c r="I30" s="11">
+        <v>27417</v>
+      </c>
+      <c r="J30" s="11">
         <v>24092</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>17286</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>15851</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>19536</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>26777</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>2325</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1423</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1084</v>
+      </c>
+      <c r="H31" s="9">
         <v>1521</v>
       </c>
-      <c r="F31" s="9">
+      <c r="I31" s="9">
+        <v>1521</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1521</v>
+      </c>
+      <c r="K31" s="9">
         <v>1697</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>2014</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>1964</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>1571</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -1309,25 +1669,40 @@
         <v>1</v>
       </c>
       <c r="I32" s="11">
+        <v>18736</v>
+      </c>
+      <c r="J32" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>1134</v>
+        <v>2138</v>
       </c>
       <c r="F33" s="9">
-        <v>1134</v>
+        <v>2115</v>
       </c>
       <c r="G33" s="9">
-        <v>1108</v>
+        <v>2291</v>
       </c>
       <c r="H33" s="9">
         <v>1108</v>
@@ -1335,102 +1710,177 @@
       <c r="I33" s="9">
         <v>1108</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9">
+        <v>1134</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1134</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1108</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1108</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>60</v>
+      </c>
+      <c r="H34" s="11">
+        <v>61</v>
+      </c>
+      <c r="I34" s="11">
+        <v>58</v>
+      </c>
+      <c r="J34" s="11">
         <v>8</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>30</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>100</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>104</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>84</v>
+      </c>
+      <c r="F35" s="9">
+        <v>77</v>
+      </c>
+      <c r="G35" s="9">
+        <v>67</v>
+      </c>
+      <c r="H35" s="9">
         <v>38</v>
       </c>
-      <c r="F35" s="9">
+      <c r="I35" s="9">
+        <v>32</v>
+      </c>
+      <c r="J35" s="9">
+        <v>38</v>
+      </c>
+      <c r="K35" s="9">
         <v>18</v>
       </c>
-      <c r="G35" s="9">
+      <c r="L35" s="9">
         <v>16</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>19</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>4435</v>
+      </c>
+      <c r="F36" s="11">
+        <v>4274</v>
+      </c>
+      <c r="G36" s="11">
+        <v>4653</v>
+      </c>
+      <c r="H36" s="11">
+        <v>4286</v>
+      </c>
+      <c r="I36" s="11">
+        <v>24941</v>
+      </c>
+      <c r="J36" s="11">
         <v>4260</v>
       </c>
-      <c r="F36" s="11">
+      <c r="K36" s="11">
         <v>31870</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>3850</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>4172</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>4489</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>58771</v>
+      </c>
+      <c r="F37" s="15">
+        <v>41174</v>
+      </c>
+      <c r="G37" s="15">
+        <v>42021</v>
+      </c>
+      <c r="H37" s="15">
+        <v>28498</v>
+      </c>
+      <c r="I37" s="15">
+        <v>73938</v>
+      </c>
+      <c r="J37" s="15">
         <v>31180</v>
       </c>
-      <c r="F37" s="15">
+      <c r="K37" s="15">
         <v>52145</v>
       </c>
-      <c r="G37" s="15">
+      <c r="L37" s="15">
         <v>23046</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>26999</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>34092</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1439,8 +1889,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1449,8 +1904,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1459,10 +1919,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1481,8 +1946,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1491,222 +1971,362 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>219</v>
+      </c>
+      <c r="F43" s="9">
+        <v>232</v>
+      </c>
+      <c r="G43" s="9">
+        <v>225</v>
+      </c>
+      <c r="H43" s="9">
+        <v>178</v>
+      </c>
+      <c r="I43" s="9">
+        <v>179</v>
+      </c>
+      <c r="J43" s="9">
         <v>101</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>149</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>168</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>114</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>16203</v>
+      </c>
+      <c r="F44" s="11">
+        <v>24847</v>
+      </c>
+      <c r="G44" s="11">
+        <v>10392</v>
+      </c>
+      <c r="H44" s="11">
+        <v>33790</v>
+      </c>
+      <c r="I44" s="11">
+        <v>13168</v>
+      </c>
+      <c r="J44" s="11">
         <v>8069</v>
       </c>
-      <c r="F44" s="11">
+      <c r="K44" s="11">
         <v>13639</v>
       </c>
-      <c r="G44" s="11">
+      <c r="L44" s="11">
         <v>24034</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>6641</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>13874</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>416</v>
+      </c>
+      <c r="F45" s="9">
+        <v>301</v>
+      </c>
+      <c r="G45" s="9">
+        <v>545</v>
+      </c>
+      <c r="H45" s="9">
+        <v>201</v>
+      </c>
+      <c r="I45" s="9">
+        <v>40</v>
+      </c>
+      <c r="J45" s="9">
         <v>276</v>
       </c>
-      <c r="F45" s="9">
+      <c r="K45" s="9">
         <v>739</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>95</v>
       </c>
-      <c r="H45" s="9">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
         <v>1566</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>150591</v>
+      </c>
+      <c r="H46" s="11">
+        <v>112475</v>
+      </c>
+      <c r="I46" s="11">
+        <v>-112288</v>
+      </c>
+      <c r="J46" s="11">
         <v>94</v>
       </c>
-      <c r="F46" s="11">
+      <c r="K46" s="11">
         <v>13</v>
       </c>
-      <c r="G46" s="11">
+      <c r="L46" s="11">
         <v>98</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>153571</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>160706</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F47" s="9">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>60</v>
+      </c>
+      <c r="G48" s="11">
+        <v>-130</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
         <v>22</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>70</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>25</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>14</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>20</v>
+      </c>
+      <c r="J49" s="9">
         <v>3</v>
       </c>
-      <c r="F49" s="9">
+      <c r="K49" s="9">
         <v>-3</v>
       </c>
-      <c r="G49" s="9">
+      <c r="L49" s="9">
         <v>3</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>-3</v>
       </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>826</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1145</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-859</v>
+      </c>
+      <c r="H50" s="11">
+        <v>63645</v>
+      </c>
+      <c r="I50" s="11">
+        <v>-19754</v>
+      </c>
+      <c r="J50" s="11">
         <v>27675</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>-67891</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>10957</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>6071</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>3648</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
+        <v>17741</v>
+      </c>
+      <c r="F51" s="15">
+        <v>26761</v>
+      </c>
+      <c r="G51" s="15">
+        <v>160764</v>
+      </c>
+      <c r="H51" s="15">
+        <v>210395</v>
+      </c>
+      <c r="I51" s="15">
+        <v>-118635</v>
+      </c>
+      <c r="J51" s="15">
         <v>36240</v>
       </c>
-      <c r="F51" s="15">
+      <c r="K51" s="15">
         <v>-53284</v>
       </c>
-      <c r="G51" s="15">
+      <c r="L51" s="15">
         <v>35380</v>
       </c>
-      <c r="H51" s="15">
+      <c r="M51" s="15">
         <v>166408</v>
       </c>
-      <c r="I51" s="15">
+      <c r="N51" s="15">
         <v>179999</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1715,8 +2335,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1725,8 +2350,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1735,10 +2365,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1757,8 +2392,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1767,133 +2417,213 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>224</v>
+      </c>
+      <c r="F57" s="9">
+        <v>200</v>
+      </c>
+      <c r="G57" s="9">
+        <v>232</v>
+      </c>
+      <c r="H57" s="9">
+        <v>178</v>
+      </c>
+      <c r="I57" s="9">
+        <v>179</v>
+      </c>
+      <c r="J57" s="9">
         <v>118</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>151</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>179</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>114</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>32702</v>
+      </c>
+      <c r="F58" s="11">
+        <v>24298</v>
+      </c>
+      <c r="G58" s="11">
+        <v>22767</v>
+      </c>
+      <c r="H58" s="11">
+        <v>27731</v>
+      </c>
+      <c r="I58" s="11">
+        <v>16492</v>
+      </c>
+      <c r="J58" s="11">
         <v>14875</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>15112</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>20349</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>6601</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>14358</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>1318</v>
+      </c>
+      <c r="F59" s="9">
+        <v>640</v>
+      </c>
+      <c r="G59" s="9">
+        <v>108</v>
+      </c>
+      <c r="H59" s="9">
+        <v>201</v>
+      </c>
+      <c r="I59" s="9">
+        <v>40</v>
+      </c>
+      <c r="J59" s="9">
         <v>100</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>-140</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>145</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>392</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>1091</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>150591</v>
+      </c>
+      <c r="H60" s="11">
+        <v>93740</v>
+      </c>
+      <c r="I60" s="11">
+        <v>-93553</v>
+      </c>
+      <c r="J60" s="11">
         <v>94</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>13</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>98</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>153571</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>160706</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="9">
         <v>0</v>
       </c>
       <c r="G61" s="9">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="H61" s="9">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I61" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
@@ -1903,86 +2633,146 @@
         <v>0</v>
       </c>
       <c r="G62" s="11">
+        <v>-131</v>
+      </c>
+      <c r="H62" s="11">
+        <v>3</v>
+      </c>
+      <c r="I62" s="11">
+        <v>50</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0</v>
+      </c>
+      <c r="L62" s="11">
         <v>21</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>86</v>
       </c>
-      <c r="I62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>7</v>
+      </c>
+      <c r="F63" s="9">
+        <v>10</v>
+      </c>
+      <c r="G63" s="9">
+        <v>30</v>
+      </c>
+      <c r="H63" s="9">
+        <v>6</v>
+      </c>
+      <c r="I63" s="9">
+        <v>13</v>
+      </c>
+      <c r="J63" s="9">
         <v>23</v>
       </c>
-      <c r="F63" s="9">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0</v>
-      </c>
-      <c r="H63" s="9">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K63" s="9">
+        <v>0</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>987</v>
+      </c>
+      <c r="F64" s="11">
+        <v>766</v>
+      </c>
+      <c r="G64" s="11">
+        <v>-466</v>
+      </c>
+      <c r="H64" s="11">
+        <v>42990</v>
+      </c>
+      <c r="I64" s="11">
+        <v>901</v>
+      </c>
+      <c r="J64" s="11">
         <v>65</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>-39416</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>10635</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>6215</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>3612</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
+        <v>35338</v>
+      </c>
+      <c r="F65" s="15">
+        <v>25914</v>
+      </c>
+      <c r="G65" s="15">
+        <v>174288</v>
+      </c>
+      <c r="H65" s="15">
+        <v>164955</v>
+      </c>
+      <c r="I65" s="15">
+        <v>-75878</v>
+      </c>
+      <c r="J65" s="15">
         <v>15275</v>
       </c>
-      <c r="F65" s="15">
+      <c r="K65" s="15">
         <v>-24280</v>
       </c>
-      <c r="G65" s="15">
+      <c r="L65" s="15">
         <v>31427</v>
       </c>
-      <c r="H65" s="15">
+      <c r="M65" s="15">
         <v>166979</v>
       </c>
-      <c r="I65" s="15">
+      <c r="N65" s="15">
         <v>179972</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1991,8 +2781,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2001,8 +2796,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2011,10 +2811,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2033,8 +2838,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2043,85 +2863,135 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>101</v>
+      </c>
+      <c r="F71" s="9">
+        <v>133</v>
+      </c>
+      <c r="G71" s="9">
+        <v>126</v>
+      </c>
+      <c r="H71" s="9">
+        <v>125</v>
+      </c>
+      <c r="I71" s="9">
+        <v>126</v>
+      </c>
+      <c r="J71" s="9">
         <v>109</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>106</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>95</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>95</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>33183</v>
+      </c>
+      <c r="F72" s="11">
+        <v>33732</v>
+      </c>
+      <c r="G72" s="11">
+        <v>21357</v>
+      </c>
+      <c r="H72" s="11">
+        <v>27417</v>
+      </c>
+      <c r="I72" s="11">
+        <v>24092</v>
+      </c>
+      <c r="J72" s="11">
         <v>17286</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>15851</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>19536</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>26777</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>26293</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>1423</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1084</v>
+      </c>
+      <c r="G73" s="9">
+        <v>1521</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1521</v>
+      </c>
+      <c r="I73" s="9">
+        <v>1521</v>
+      </c>
+      <c r="J73" s="9">
         <v>1697</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>2576</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>1964</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>1571</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>2046</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
@@ -2134,131 +3004,221 @@
         <v>1</v>
       </c>
       <c r="H74" s="11">
-        <v>1</v>
+        <v>18736</v>
       </c>
       <c r="I74" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="11">
+        <v>1</v>
+      </c>
+      <c r="K74" s="11">
+        <v>1</v>
+      </c>
+      <c r="L74" s="11">
+        <v>1</v>
+      </c>
+      <c r="M74" s="11">
+        <v>1</v>
+      </c>
+      <c r="N74" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>2115</v>
+      </c>
+      <c r="F75" s="9">
+        <v>2291</v>
+      </c>
+      <c r="G75" s="9">
         <v>1134</v>
-      </c>
-      <c r="F75" s="9">
-        <v>1108</v>
-      </c>
-      <c r="G75" s="9">
-        <v>1108</v>
       </c>
       <c r="H75" s="9">
         <v>1108</v>
       </c>
       <c r="I75" s="9">
+        <v>1134</v>
+      </c>
+      <c r="J75" s="9">
+        <v>1134</v>
+      </c>
+      <c r="K75" s="9">
         <v>1108</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L75" s="9">
+        <v>1108</v>
+      </c>
+      <c r="M75" s="9">
+        <v>1108</v>
+      </c>
+      <c r="N75" s="9">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>60</v>
+      </c>
+      <c r="G76" s="11">
+        <v>61</v>
+      </c>
+      <c r="H76" s="11">
+        <v>58</v>
+      </c>
+      <c r="I76" s="11">
+        <v>8</v>
+      </c>
+      <c r="J76" s="11">
         <v>30</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>100</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>104</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>32</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>77</v>
+      </c>
+      <c r="F77" s="9">
+        <v>67</v>
+      </c>
+      <c r="G77" s="9">
+        <v>37</v>
+      </c>
+      <c r="H77" s="9">
+        <v>32</v>
+      </c>
+      <c r="I77" s="9">
+        <v>38</v>
+      </c>
+      <c r="J77" s="9">
         <v>18</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>16</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>19</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>19</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>4274</v>
+      </c>
+      <c r="F78" s="11">
+        <v>4653</v>
+      </c>
+      <c r="G78" s="11">
+        <v>4260</v>
+      </c>
+      <c r="H78" s="11">
+        <v>24941</v>
+      </c>
+      <c r="I78" s="11">
+        <v>4260</v>
+      </c>
+      <c r="J78" s="11">
         <v>31870</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>3383</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>4172</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>4489</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>4525</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
+        <v>41174</v>
+      </c>
+      <c r="F79" s="15">
+        <v>42021</v>
+      </c>
+      <c r="G79" s="15">
+        <v>28497</v>
+      </c>
+      <c r="H79" s="15">
+        <v>73938</v>
+      </c>
+      <c r="I79" s="15">
+        <v>31180</v>
+      </c>
+      <c r="J79" s="15">
         <v>52145</v>
       </c>
-      <c r="F79" s="15">
+      <c r="K79" s="15">
         <v>23141</v>
       </c>
-      <c r="G79" s="15">
+      <c r="L79" s="15">
         <v>26999</v>
       </c>
-      <c r="H79" s="15">
+      <c r="M79" s="15">
         <v>34092</v>
       </c>
-      <c r="I79" s="15">
+      <c r="N79" s="15">
         <v>34119</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2267,8 +3227,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2277,8 +3242,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2287,10 +3257,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2309,8 +3284,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2319,222 +3309,362 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>8439</v>
+      </c>
+      <c r="F85" s="9">
+        <v>7955</v>
+      </c>
+      <c r="G85" s="9">
+        <v>12317</v>
+      </c>
+      <c r="H85" s="9">
+        <v>11594</v>
+      </c>
+      <c r="I85" s="9">
+        <v>11592</v>
+      </c>
+      <c r="J85" s="9">
         <v>26622</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>10546</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>10109</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>8901</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>8902</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>11767</v>
+      </c>
+      <c r="F86" s="11">
+        <v>10390</v>
+      </c>
+      <c r="G86" s="11">
+        <v>12584</v>
+      </c>
+      <c r="H86" s="11">
+        <v>8714</v>
+      </c>
+      <c r="I86" s="11">
+        <v>5177</v>
+      </c>
+      <c r="J86" s="11">
         <v>5912</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>3496</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>11916</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>5810</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>15068</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>29384</v>
+      </c>
+      <c r="F87" s="9">
+        <v>39443</v>
+      </c>
+      <c r="G87" s="9">
+        <v>36486</v>
+      </c>
+      <c r="H87" s="9">
+        <v>93710</v>
+      </c>
+      <c r="I87" s="9">
+        <v>93710</v>
+      </c>
+      <c r="J87" s="9">
         <v>88495</v>
       </c>
-      <c r="F87" s="9">
+      <c r="K87" s="9">
         <v>113956</v>
       </c>
-      <c r="G87" s="9">
+      <c r="L87" s="9">
         <v>121260</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>113654</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>82273</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>1477</v>
+        <v>25</v>
       </c>
       <c r="F88" s="11">
         <v>25</v>
       </c>
       <c r="G88" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H88" s="11">
         <v>24</v>
       </c>
       <c r="I88" s="11">
+        <v>755</v>
+      </c>
+      <c r="J88" s="11">
+        <v>1477</v>
+      </c>
+      <c r="K88" s="11">
+        <v>25</v>
+      </c>
+      <c r="L88" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M88" s="11">
+        <v>24</v>
+      </c>
+      <c r="N88" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
+        <v>7749</v>
+      </c>
+      <c r="F89" s="9">
+        <v>7881</v>
+      </c>
+      <c r="G89" s="9">
+        <v>8706</v>
+      </c>
+      <c r="H89" s="9">
+        <v>2446</v>
+      </c>
+      <c r="I89" s="9">
+        <v>2972</v>
+      </c>
+      <c r="J89" s="9">
         <v>3134</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>3134</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>2971</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>2971</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>2971</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>66</v>
+      </c>
+      <c r="F90" s="11">
+        <v>67</v>
+      </c>
+      <c r="G90" s="11">
+        <v>9569</v>
+      </c>
+      <c r="H90" s="11">
+        <v>9570</v>
+      </c>
+      <c r="I90" s="11">
+        <v>9097</v>
+      </c>
+      <c r="J90" s="11">
         <v>1182</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>4949</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>16359</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>17403</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>5766</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>6261</v>
+      </c>
+      <c r="F91" s="9">
+        <v>6132</v>
+      </c>
+      <c r="G91" s="9">
+        <v>5692</v>
+      </c>
+      <c r="H91" s="9">
+        <v>897</v>
+      </c>
+      <c r="I91" s="9">
+        <v>710</v>
+      </c>
+      <c r="J91" s="9">
         <v>1742</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>4661</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>4271</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>4660</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>4660</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>78631</v>
+      </c>
+      <c r="F92" s="11">
+        <v>69175</v>
+      </c>
+      <c r="G92" s="11">
+        <v>73931</v>
+      </c>
+      <c r="H92" s="11">
+        <v>66374</v>
+      </c>
+      <c r="I92" s="11">
+        <v>65292</v>
+      </c>
+      <c r="J92" s="11">
         <v>72841</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>79423</v>
       </c>
-      <c r="G92" s="11">
+      <c r="L92" s="11">
         <v>47217</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>67156</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>79833</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
+        <v>142322</v>
+      </c>
+      <c r="F93" s="15">
+        <v>141068</v>
+      </c>
+      <c r="G93" s="15">
+        <v>159310</v>
+      </c>
+      <c r="H93" s="15">
+        <v>193329</v>
+      </c>
+      <c r="I93" s="15">
+        <v>189305</v>
+      </c>
+      <c r="J93" s="15">
         <v>201405</v>
       </c>
-      <c r="F93" s="15">
+      <c r="K93" s="15">
         <v>220190</v>
       </c>
-      <c r="G93" s="15">
+      <c r="L93" s="15">
         <v>214127</v>
       </c>
-      <c r="H93" s="15">
+      <c r="M93" s="15">
         <v>220579</v>
       </c>
-      <c r="I93" s="15">
+      <c r="N93" s="15">
         <v>199497</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2543,8 +3673,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2553,8 +3688,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2563,10 +3703,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2585,8 +3730,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2595,222 +3755,362 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>4530</v>
+      </c>
+      <c r="F99" s="9">
+        <v>43887</v>
+      </c>
+      <c r="G99" s="9">
+        <v>28687</v>
+      </c>
+      <c r="H99" s="9">
+        <v>22662</v>
+      </c>
+      <c r="I99" s="9">
+        <v>24659</v>
+      </c>
+      <c r="J99" s="9">
         <v>19205</v>
       </c>
-      <c r="F99" s="9">
+      <c r="K99" s="9">
         <v>28905</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>39101</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>26858</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>51390</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>6883</v>
+      </c>
+      <c r="F100" s="11">
+        <v>10708</v>
+      </c>
+      <c r="G100" s="11">
+        <v>3738</v>
+      </c>
+      <c r="H100" s="11">
+        <v>4865</v>
+      </c>
+      <c r="I100" s="11">
+        <v>3897</v>
+      </c>
+      <c r="J100" s="11">
         <v>7517</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>20154</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>19805</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>17038</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>18903</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>22714</v>
+      </c>
+      <c r="F101" s="9">
+        <v>13765</v>
+      </c>
+      <c r="G101" s="9">
+        <v>69702</v>
+      </c>
+      <c r="H101" s="9">
+        <v>16137</v>
+      </c>
+      <c r="I101" s="9">
+        <v>0</v>
+      </c>
+      <c r="J101" s="9">
         <v>24733</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>54030</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>3527</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>-1</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>122788</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>0</v>
+      </c>
+      <c r="F102" s="11">
+        <v>1</v>
+      </c>
+      <c r="G102" s="11">
+        <v>8237</v>
+      </c>
+      <c r="H102" s="11">
+        <v>10950</v>
+      </c>
+      <c r="I102" s="11">
+        <v>-3743</v>
+      </c>
+      <c r="J102" s="11">
         <v>3664</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>511</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>5</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>10268</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>16874</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F103" s="9">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="G103" s="9">
         <v>0</v>
       </c>
       <c r="H103" s="9">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="I103" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="9">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9">
+        <v>0</v>
+      </c>
+      <c r="L103" s="9">
+        <v>0</v>
+      </c>
+      <c r="M103" s="9">
+        <v>0</v>
+      </c>
+      <c r="N103" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>10580</v>
+      </c>
+      <c r="F104" s="11">
+        <v>9503</v>
+      </c>
+      <c r="G104" s="11">
+        <v>-10579</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11">
+        <v>0</v>
+      </c>
+      <c r="J104" s="11">
         <v>3767</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>11410</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>4486</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>2800</v>
       </c>
-      <c r="I104" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N104" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>0</v>
+      </c>
+      <c r="F105" s="9">
+        <v>0</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0</v>
+      </c>
+      <c r="H105" s="9">
+        <v>0</v>
+      </c>
+      <c r="I105" s="9">
+        <v>3603</v>
+      </c>
+      <c r="J105" s="9">
         <v>4095</v>
       </c>
-      <c r="F105" s="9">
+      <c r="K105" s="9">
         <v>-390</v>
       </c>
-      <c r="G105" s="9">
+      <c r="L105" s="9">
         <v>389</v>
       </c>
-      <c r="H105" s="9">
+      <c r="M105" s="9">
         <v>-389</v>
       </c>
-      <c r="I105" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>3748</v>
+      </c>
+      <c r="F106" s="11">
+        <v>-196</v>
+      </c>
+      <c r="G106" s="11">
+        <v>16321</v>
+      </c>
+      <c r="H106" s="11">
+        <v>4856</v>
+      </c>
+      <c r="I106" s="11">
+        <v>8002</v>
+      </c>
+      <c r="J106" s="11">
         <v>9866</v>
       </c>
-      <c r="F106" s="11">
+      <c r="K106" s="11">
         <v>50172</v>
       </c>
-      <c r="G106" s="11">
+      <c r="L106" s="11">
         <v>61325</v>
       </c>
-      <c r="H106" s="11">
+      <c r="M106" s="11">
         <v>-11064</v>
       </c>
-      <c r="I106" s="11">
+      <c r="N106" s="11">
         <v>91675</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>48785</v>
+      </c>
+      <c r="F107" s="15">
+        <v>78492</v>
+      </c>
+      <c r="G107" s="15">
+        <v>116106</v>
+      </c>
+      <c r="H107" s="15">
+        <v>60264</v>
+      </c>
+      <c r="I107" s="15">
+        <v>36418</v>
+      </c>
+      <c r="J107" s="15">
         <v>72847</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>164792</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>128638</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>45510</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>301630</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2819,8 +4119,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2829,8 +4134,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2839,10 +4149,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2861,8 +4176,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2871,222 +4201,362 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>5014</v>
+      </c>
+      <c r="F113" s="9">
+        <v>39524</v>
+      </c>
+      <c r="G113" s="9">
+        <v>29344</v>
+      </c>
+      <c r="H113" s="9">
+        <v>22664</v>
+      </c>
+      <c r="I113" s="9">
+        <v>9696</v>
+      </c>
+      <c r="J113" s="9">
         <v>35281</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>29274</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>40309</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>26858</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>51391</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>8260</v>
+      </c>
+      <c r="F114" s="11">
+        <v>8514</v>
+      </c>
+      <c r="G114" s="11">
+        <v>7608</v>
+      </c>
+      <c r="H114" s="11">
+        <v>8402</v>
+      </c>
+      <c r="I114" s="11">
+        <v>3162</v>
+      </c>
+      <c r="J114" s="11">
         <v>9933</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>11733</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>25911</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>7778</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>18506</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>12655</v>
+      </c>
+      <c r="F115" s="9">
+        <v>16722</v>
+      </c>
+      <c r="G115" s="9">
+        <v>12478</v>
+      </c>
+      <c r="H115" s="9">
+        <v>16137</v>
+      </c>
+      <c r="I115" s="9">
+        <v>5215</v>
+      </c>
+      <c r="J115" s="9">
         <v>-728</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>5364</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>11133</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>31636</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>67668</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>0</v>
+      </c>
+      <c r="F116" s="11">
+        <v>1</v>
+      </c>
+      <c r="G116" s="11">
+        <v>8237</v>
+      </c>
+      <c r="H116" s="11">
+        <v>10219</v>
+      </c>
+      <c r="I116" s="11">
+        <v>-4464</v>
+      </c>
+      <c r="J116" s="11">
         <v>5116</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>511</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>5</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>10268</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>16874</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="F117" s="9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G117" s="9">
-        <v>0</v>
+        <v>6097</v>
       </c>
       <c r="H117" s="9">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="I117" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>0</v>
+        <v>10579</v>
       </c>
       <c r="F118" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="11">
+        <v>-10580</v>
+      </c>
+      <c r="H118" s="11">
+        <v>473</v>
+      </c>
+      <c r="I118" s="11">
+        <v>7915</v>
+      </c>
+      <c r="J118" s="11">
+        <v>0</v>
+      </c>
+      <c r="K118" s="11">
+        <v>0</v>
+      </c>
+      <c r="L118" s="11">
         <v>3442</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>14438</v>
       </c>
-      <c r="I118" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N118" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
+        <v>129</v>
+      </c>
+      <c r="F119" s="9">
+        <v>440</v>
+      </c>
+      <c r="G119" s="9">
+        <v>4795</v>
+      </c>
+      <c r="H119" s="9">
+        <v>187</v>
+      </c>
+      <c r="I119" s="9">
+        <v>2571</v>
+      </c>
+      <c r="J119" s="9">
         <v>1176</v>
       </c>
-      <c r="F119" s="9">
-        <v>0</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0</v>
-      </c>
-      <c r="H119" s="9">
-        <v>0</v>
-      </c>
-      <c r="I119" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K119" s="9">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9">
+        <v>0</v>
+      </c>
+      <c r="M119" s="9">
+        <v>0</v>
+      </c>
+      <c r="N119" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
+        <v>13386</v>
+      </c>
+      <c r="F120" s="11">
+        <v>-5134</v>
+      </c>
+      <c r="G120" s="11">
+        <v>23570</v>
+      </c>
+      <c r="H120" s="11">
+        <v>5938</v>
+      </c>
+      <c r="I120" s="11">
+        <v>453</v>
+      </c>
+      <c r="J120" s="11">
         <v>3284</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>120213</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>41386</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>8600</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>80554</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>50221</v>
+      </c>
+      <c r="F121" s="15">
+        <v>60067</v>
+      </c>
+      <c r="G121" s="15">
+        <v>81549</v>
+      </c>
+      <c r="H121" s="15">
+        <v>64288</v>
+      </c>
+      <c r="I121" s="15">
+        <v>24549</v>
+      </c>
+      <c r="J121" s="15">
         <v>54062</v>
       </c>
-      <c r="F121" s="15">
+      <c r="K121" s="15">
         <v>167095</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>122186</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>99578</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>234993</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3095,8 +4565,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3105,8 +4580,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3115,10 +4595,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3137,8 +4622,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3147,222 +4647,362 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
+        <v>7955</v>
+      </c>
+      <c r="F127" s="9">
+        <v>12317</v>
+      </c>
+      <c r="G127" s="9">
+        <v>11661</v>
+      </c>
+      <c r="H127" s="9">
+        <v>11592</v>
+      </c>
+      <c r="I127" s="9">
+        <v>26622</v>
+      </c>
+      <c r="J127" s="9">
         <v>10546</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>10109</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>8901</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>8902</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>8972</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>10390</v>
+      </c>
+      <c r="F128" s="11">
+        <v>12584</v>
+      </c>
+      <c r="G128" s="11">
+        <v>8714</v>
+      </c>
+      <c r="H128" s="11">
+        <v>5177</v>
+      </c>
+      <c r="I128" s="11">
+        <v>5912</v>
+      </c>
+      <c r="J128" s="11">
         <v>3496</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>11916</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>5810</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>15068</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>15465</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>39443</v>
+      </c>
+      <c r="F129" s="9">
+        <v>36486</v>
+      </c>
+      <c r="G129" s="9">
+        <v>93710</v>
+      </c>
+      <c r="H129" s="9">
+        <v>93710</v>
+      </c>
+      <c r="I129" s="9">
+        <v>88495</v>
+      </c>
+      <c r="J129" s="9">
         <v>113956</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>162622</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>113654</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>82273</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>137393</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
         <v>25</v>
       </c>
       <c r="F130" s="11">
+        <v>25</v>
+      </c>
+      <c r="G130" s="11">
+        <v>25</v>
+      </c>
+      <c r="H130" s="11">
+        <v>755</v>
+      </c>
+      <c r="I130" s="11">
+        <v>1477</v>
+      </c>
+      <c r="J130" s="11">
+        <v>25</v>
+      </c>
+      <c r="K130" s="11">
         <v>24</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>24</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>24</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
+        <v>7881</v>
+      </c>
+      <c r="F131" s="9">
+        <v>8706</v>
+      </c>
+      <c r="G131" s="9">
+        <v>2609</v>
+      </c>
+      <c r="H131" s="9">
+        <v>2972</v>
+      </c>
+      <c r="I131" s="9">
         <v>3134</v>
       </c>
-      <c r="F131" s="9">
+      <c r="J131" s="9">
+        <v>3134</v>
+      </c>
+      <c r="K131" s="9">
         <v>2971</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>2971</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>2971</v>
       </c>
-      <c r="I131" s="9">
+      <c r="N131" s="9">
         <v>2971</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
+        <v>67</v>
+      </c>
+      <c r="F132" s="11">
+        <v>9569</v>
+      </c>
+      <c r="G132" s="11">
+        <v>9570</v>
+      </c>
+      <c r="H132" s="11">
+        <v>9097</v>
+      </c>
+      <c r="I132" s="11">
+        <v>1182</v>
+      </c>
+      <c r="J132" s="11">
         <v>4949</v>
       </c>
-      <c r="F132" s="11">
+      <c r="K132" s="11">
         <v>16359</v>
       </c>
-      <c r="G132" s="11">
+      <c r="L132" s="11">
         <v>17403</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>5766</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>5766</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>6132</v>
+      </c>
+      <c r="F133" s="9">
+        <v>5692</v>
+      </c>
+      <c r="G133" s="9">
+        <v>897</v>
+      </c>
+      <c r="H133" s="9">
+        <v>710</v>
+      </c>
+      <c r="I133" s="9">
+        <v>1742</v>
+      </c>
+      <c r="J133" s="9">
         <v>4661</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>4271</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>4660</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>4660</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>4660</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>69175</v>
+      </c>
+      <c r="F134" s="11">
+        <v>73931</v>
+      </c>
+      <c r="G134" s="11">
+        <v>66865</v>
+      </c>
+      <c r="H134" s="11">
+        <v>65292</v>
+      </c>
+      <c r="I134" s="11">
+        <v>72841</v>
+      </c>
+      <c r="J134" s="11">
         <v>79423</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>9382</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>67156</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>79833</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>90883</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
+        <v>141068</v>
+      </c>
+      <c r="F135" s="15">
+        <v>159310</v>
+      </c>
+      <c r="G135" s="15">
+        <v>194051</v>
+      </c>
+      <c r="H135" s="15">
+        <v>189305</v>
+      </c>
+      <c r="I135" s="15">
+        <v>201405</v>
+      </c>
+      <c r="J135" s="15">
         <v>220190</v>
       </c>
-      <c r="F135" s="15">
+      <c r="K135" s="15">
         <v>217654</v>
       </c>
-      <c r="G135" s="15">
+      <c r="L135" s="15">
         <v>220579</v>
       </c>
-      <c r="H135" s="15">
+      <c r="M135" s="15">
         <v>199497</v>
       </c>
-      <c r="I135" s="15">
+      <c r="N135" s="15">
         <v>266134</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3371,8 +5011,13 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3381,8 +5026,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3391,10 +5041,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3413,8 +5068,23 @@
       <c r="I139" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3423,200 +5093,325 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>79613208</v>
+      </c>
+      <c r="F141" s="9">
+        <v>78762376</v>
+      </c>
+      <c r="G141" s="9">
+        <v>92609023</v>
+      </c>
+      <c r="H141" s="9">
+        <v>92752000</v>
+      </c>
+      <c r="I141" s="9">
+        <v>92736000</v>
+      </c>
+      <c r="J141" s="9">
         <v>211285714</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>96752294</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>95367925</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>93694737</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>93705263</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
+        <v>236846</v>
+      </c>
+      <c r="F142" s="11">
+        <v>313112</v>
+      </c>
+      <c r="G142" s="11">
+        <v>373058</v>
+      </c>
+      <c r="H142" s="11">
+        <v>407997</v>
+      </c>
+      <c r="I142" s="11">
+        <v>188824</v>
+      </c>
+      <c r="J142" s="11">
         <v>245393</v>
       </c>
-      <c r="F142" s="11">
+      <c r="K142" s="11">
         <v>202245</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>751751</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>297400</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>562722</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>12638280</v>
+      </c>
+      <c r="F143" s="9">
+        <v>27718201</v>
+      </c>
+      <c r="G143" s="9">
+        <v>33658672</v>
+      </c>
+      <c r="H143" s="9">
+        <v>61610782</v>
+      </c>
+      <c r="I143" s="9">
+        <v>61610782</v>
+      </c>
+      <c r="J143" s="9">
         <v>58182117</v>
       </c>
-      <c r="F143" s="9">
+      <c r="K143" s="9">
         <v>67151444</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>60208540</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>57868635</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>52369828</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>1477000000</v>
+        <v>25000000</v>
       </c>
       <c r="F144" s="11">
         <v>25000000</v>
       </c>
       <c r="G144" s="11">
-        <v>24000000</v>
+        <v>25000000</v>
       </c>
       <c r="H144" s="11">
         <v>24000000</v>
       </c>
       <c r="I144" s="11">
+        <v>40297</v>
+      </c>
+      <c r="J144" s="11">
+        <v>1477000000</v>
+      </c>
+      <c r="K144" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="L144" s="11">
         <v>24000000</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M144" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="N144" s="11">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>3624415</v>
+      </c>
+      <c r="F145" s="9">
+        <v>3726241</v>
+      </c>
+      <c r="G145" s="9">
+        <v>3800087</v>
+      </c>
+      <c r="H145" s="9">
+        <v>2207581</v>
+      </c>
+      <c r="I145" s="9">
+        <v>2682310</v>
+      </c>
+      <c r="J145" s="9">
         <v>2763668</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>2763668</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>2681408</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>2681408</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>2681408</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11">
+      <c r="E146" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G146" s="11">
+        <v>159483333</v>
+      </c>
+      <c r="H146" s="11">
+        <v>156885246</v>
+      </c>
+      <c r="I146" s="11">
+        <v>156844828</v>
+      </c>
+      <c r="J146" s="11">
         <v>147750000</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>164966667</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>163590000</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>167336538</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>180187500</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>74535714</v>
+      </c>
+      <c r="F147" s="9">
+        <v>79636364</v>
+      </c>
+      <c r="G147" s="9">
+        <v>84955224</v>
+      </c>
+      <c r="H147" s="9">
+        <v>23605263</v>
+      </c>
+      <c r="I147" s="9">
+        <v>22187500</v>
+      </c>
+      <c r="J147" s="9">
         <v>45842105</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>258944444</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>266937500</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>245263158</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>245263158</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
+        <v>17729651</v>
+      </c>
+      <c r="F148" s="11">
+        <v>16185073</v>
+      </c>
+      <c r="G148" s="11">
+        <v>15888889</v>
+      </c>
+      <c r="H148" s="11">
+        <v>15486234</v>
+      </c>
+      <c r="I148" s="11">
+        <v>2617858</v>
+      </c>
+      <c r="J148" s="11">
         <v>17098826</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>2492093</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>12264156</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>16096836</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>17784139</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3625,8 +5420,13 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3635,8 +5435,13 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3645,10 +5450,15 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -3667,8 +5477,23 @@
       <c r="I152" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M152" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3677,200 +5502,325 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
+        <v>20684932</v>
+      </c>
+      <c r="F154" s="9">
+        <v>189168103</v>
+      </c>
+      <c r="G154" s="9">
+        <v>127497778</v>
+      </c>
+      <c r="H154" s="9">
+        <v>127314607</v>
+      </c>
+      <c r="I154" s="9">
+        <v>137759777</v>
+      </c>
+      <c r="J154" s="9">
         <v>190148515</v>
       </c>
-      <c r="F154" s="9">
+      <c r="K154" s="9">
         <v>193993289</v>
       </c>
-      <c r="G154" s="9">
+      <c r="L154" s="9">
         <v>232744048</v>
       </c>
-      <c r="H154" s="9">
+      <c r="M154" s="9">
         <v>235596491</v>
       </c>
-      <c r="I154" s="9">
+      <c r="N154" s="9">
         <v>250682927</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
+        <v>424798</v>
+      </c>
+      <c r="F155" s="11">
+        <v>430957</v>
+      </c>
+      <c r="G155" s="11">
+        <v>359700</v>
+      </c>
+      <c r="H155" s="11">
+        <v>143978</v>
+      </c>
+      <c r="I155" s="11">
+        <v>295945</v>
+      </c>
+      <c r="J155" s="11">
         <v>931590</v>
       </c>
-      <c r="F155" s="11">
+      <c r="K155" s="11">
         <v>1477674</v>
       </c>
-      <c r="G155" s="11">
+      <c r="L155" s="11">
         <v>824041</v>
       </c>
-      <c r="H155" s="11">
+      <c r="M155" s="11">
         <v>2565577</v>
       </c>
-      <c r="I155" s="11">
+      <c r="N155" s="11">
         <v>1362477</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
+        <v>54600962</v>
+      </c>
+      <c r="F156" s="9">
+        <v>45730897</v>
+      </c>
+      <c r="G156" s="9">
+        <v>127893578</v>
+      </c>
+      <c r="H156" s="9">
+        <v>80283582</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J156" s="9">
         <v>89612319</v>
       </c>
-      <c r="F156" s="9">
+      <c r="K156" s="9">
         <v>73112314</v>
       </c>
-      <c r="G156" s="9">
+      <c r="L156" s="9">
         <v>37126316</v>
       </c>
-      <c r="H156" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I156" s="9">
+      <c r="M156" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N156" s="9">
         <v>78408685</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="11">
+      <c r="E157" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G157" s="11">
+        <v>54698</v>
+      </c>
+      <c r="H157" s="11">
+        <v>97355</v>
+      </c>
+      <c r="I157" s="11">
+        <v>33334</v>
+      </c>
+      <c r="J157" s="11">
         <v>38978723</v>
       </c>
-      <c r="F157" s="11">
+      <c r="K157" s="11">
         <v>39307692</v>
       </c>
-      <c r="G157" s="11">
+      <c r="L157" s="11">
         <v>51020</v>
       </c>
-      <c r="H157" s="11">
+      <c r="M157" s="11">
         <v>66862</v>
       </c>
-      <c r="I157" s="11">
+      <c r="N157" s="11">
         <v>104999</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>44</v>
+      <c r="E158" s="9">
+        <v>4285714</v>
+      </c>
+      <c r="F158" s="9">
+        <v>4681818</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="H158" s="9">
+        <v>7490566</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K158" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L158" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M158" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N158" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D159" s="11"/>
-      <c r="E159" s="11">
+      <c r="E159" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F159" s="11">
+        <v>158383333</v>
+      </c>
+      <c r="G159" s="11">
+        <v>81376923</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J159" s="11">
         <v>171227273</v>
       </c>
-      <c r="F159" s="11">
+      <c r="K159" s="11">
         <v>163000000</v>
       </c>
-      <c r="G159" s="11">
+      <c r="L159" s="11">
         <v>179440000</v>
       </c>
-      <c r="H159" s="11">
+      <c r="M159" s="11">
         <v>200000000</v>
       </c>
-      <c r="I159" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N159" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D160" s="9"/>
-      <c r="E160" s="9">
+      <c r="E160" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I160" s="9">
+        <v>180150000</v>
+      </c>
+      <c r="J160" s="9">
         <v>1365000000</v>
       </c>
-      <c r="F160" s="9">
+      <c r="K160" s="9">
         <v>130000000</v>
       </c>
-      <c r="G160" s="9">
+      <c r="L160" s="9">
         <v>129666667</v>
       </c>
-      <c r="H160" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M160" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N160" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="11">
+        <v>4537530</v>
+      </c>
+      <c r="F161" s="11">
+        <v>-171179</v>
+      </c>
+      <c r="G161" s="11">
+        <v>-19000000</v>
+      </c>
+      <c r="H161" s="11">
+        <v>76298</v>
+      </c>
+      <c r="I161" s="11">
+        <v>-405083</v>
+      </c>
+      <c r="J161" s="11">
         <v>356495</v>
       </c>
-      <c r="F161" s="11">
+      <c r="K161" s="11">
         <v>-739008</v>
       </c>
-      <c r="G161" s="11">
+      <c r="L161" s="11">
         <v>5596879</v>
       </c>
-      <c r="H161" s="11">
+      <c r="M161" s="11">
         <v>-1822435</v>
       </c>
-      <c r="I161" s="11">
+      <c r="N161" s="11">
         <v>25130208</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3879,8 +5829,13 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3889,8 +5844,13 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3899,10 +5859,15 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -3921,8 +5886,23 @@
       <c r="I165" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K165" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M165" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3931,200 +5911,325 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
+        <v>22383929</v>
+      </c>
+      <c r="F167" s="9">
+        <v>197620000</v>
+      </c>
+      <c r="G167" s="9">
+        <v>126482759</v>
+      </c>
+      <c r="H167" s="9">
+        <v>127325843</v>
+      </c>
+      <c r="I167" s="9">
+        <v>54167598</v>
+      </c>
+      <c r="J167" s="9">
         <v>298991525</v>
       </c>
-      <c r="F167" s="9">
+      <c r="K167" s="9">
         <v>193867550</v>
       </c>
-      <c r="G167" s="9">
+      <c r="L167" s="9">
         <v>225189944</v>
       </c>
-      <c r="H167" s="9">
+      <c r="M167" s="9">
         <v>235596491</v>
       </c>
-      <c r="I167" s="9">
+      <c r="N167" s="9">
         <v>250687805</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
+        <v>252584</v>
+      </c>
+      <c r="F168" s="11">
+        <v>350399</v>
+      </c>
+      <c r="G168" s="11">
+        <v>334168</v>
+      </c>
+      <c r="H168" s="11">
+        <v>302982</v>
+      </c>
+      <c r="I168" s="11">
+        <v>191729</v>
+      </c>
+      <c r="J168" s="11">
         <v>667765</v>
       </c>
-      <c r="F168" s="11">
+      <c r="K168" s="11">
         <v>776403</v>
       </c>
-      <c r="G168" s="11">
+      <c r="L168" s="11">
         <v>1273330</v>
       </c>
-      <c r="H168" s="11">
+      <c r="M168" s="11">
         <v>1178306</v>
       </c>
-      <c r="I168" s="11">
+      <c r="N168" s="11">
         <v>1288898</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
+        <v>9601669</v>
+      </c>
+      <c r="F169" s="9">
+        <v>26128125</v>
+      </c>
+      <c r="G169" s="9">
+        <v>115537037</v>
+      </c>
+      <c r="H169" s="9">
+        <v>80283582</v>
+      </c>
+      <c r="I169" s="9">
+        <v>130375000</v>
+      </c>
+      <c r="J169" s="9">
         <v>-7280000</v>
       </c>
-      <c r="F169" s="9">
+      <c r="K169" s="9">
         <v>-38314286</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>76779310</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>80704082</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>62023831</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="11">
+      <c r="E170" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G170" s="11">
+        <v>54698</v>
+      </c>
+      <c r="H170" s="11">
+        <v>109014</v>
+      </c>
+      <c r="I170" s="11">
+        <v>47716</v>
+      </c>
+      <c r="J170" s="11">
         <v>54425532</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>39307692</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>51020</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>66862</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>104999</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9" t="s">
-        <v>44</v>
+      <c r="E171" s="9">
+        <v>1980000</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="G171" s="9">
+        <v>5269663</v>
+      </c>
+      <c r="H171" s="9">
+        <v>2528302</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K171" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N171" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G172" s="11">
+        <v>80763359</v>
+      </c>
+      <c r="H172" s="11">
+        <v>157666667</v>
+      </c>
+      <c r="I172" s="11">
+        <v>158300000</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K172" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L172" s="11">
         <v>163904762</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>167883721</v>
       </c>
-      <c r="I172" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N172" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
+        <v>18428571</v>
+      </c>
+      <c r="F173" s="9">
+        <v>44000000</v>
+      </c>
+      <c r="G173" s="9">
+        <v>159833333</v>
+      </c>
+      <c r="H173" s="9">
+        <v>31166667</v>
+      </c>
+      <c r="I173" s="9">
+        <v>197769231</v>
+      </c>
+      <c r="J173" s="9">
         <v>51130435</v>
       </c>
-      <c r="F173" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G173" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H173" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I173" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K173" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M173" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N173" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
+        <v>13562310</v>
+      </c>
+      <c r="F174" s="11">
+        <v>-6702350</v>
+      </c>
+      <c r="G174" s="11">
+        <v>-50579399</v>
+      </c>
+      <c r="H174" s="11">
+        <v>138125</v>
+      </c>
+      <c r="I174" s="11">
+        <v>502775</v>
+      </c>
+      <c r="J174" s="11">
         <v>50523077</v>
       </c>
-      <c r="F174" s="11">
+      <c r="K174" s="11">
         <v>-3049853</v>
       </c>
-      <c r="G174" s="11">
+      <c r="L174" s="11">
         <v>3891490</v>
       </c>
-      <c r="H174" s="11">
+      <c r="M174" s="11">
         <v>1383749</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>22301772</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4133,8 +6238,13 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4143,8 +6253,13 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4153,10 +6268,15 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -4175,8 +6295,23 @@
       <c r="I178" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K178" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M178" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N178" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4185,200 +6320,325 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D180" s="9"/>
-      <c r="E180" s="9">
+      <c r="E180" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I180" s="9">
+        <v>211285714</v>
+      </c>
+      <c r="J180" s="9">
         <v>96752294</v>
       </c>
-      <c r="F180" s="9">
+      <c r="K180" s="9">
         <v>95367925</v>
       </c>
-      <c r="G180" s="9">
+      <c r="L180" s="9">
         <v>93694737</v>
       </c>
-      <c r="H180" s="9">
+      <c r="M180" s="9">
         <v>93705263</v>
       </c>
-      <c r="I180" s="9">
+      <c r="N180" s="9">
         <v>94442105</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D181" s="11"/>
-      <c r="E181" s="11">
+      <c r="E181" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I181" s="11">
+        <v>245393</v>
+      </c>
+      <c r="J181" s="11">
         <v>202245</v>
       </c>
-      <c r="F181" s="11">
+      <c r="K181" s="11">
         <v>751751</v>
       </c>
-      <c r="G181" s="11">
+      <c r="L181" s="11">
         <v>297400</v>
       </c>
-      <c r="H181" s="11">
+      <c r="M181" s="11">
         <v>562722</v>
       </c>
-      <c r="I181" s="11">
+      <c r="N181" s="11">
         <v>588179</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D182" s="9"/>
-      <c r="E182" s="9">
+      <c r="E182" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H182" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I182" s="9">
+        <v>58182117</v>
+      </c>
+      <c r="J182" s="9">
         <v>67151444</v>
       </c>
-      <c r="F182" s="9">
+      <c r="K182" s="9">
         <v>63129658</v>
       </c>
-      <c r="G182" s="9">
+      <c r="L182" s="9">
         <v>57868635</v>
       </c>
-      <c r="H182" s="9">
+      <c r="M182" s="9">
         <v>52369828</v>
       </c>
-      <c r="I182" s="9">
+      <c r="N182" s="9">
         <v>67152004</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D183" s="11"/>
-      <c r="E183" s="11">
+      <c r="E183" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I183" s="11">
+        <v>1477000000</v>
+      </c>
+      <c r="J183" s="11">
         <v>25000000</v>
       </c>
-      <c r="F183" s="11">
+      <c r="K183" s="11">
         <v>24000000</v>
       </c>
-      <c r="G183" s="11">
+      <c r="L183" s="11">
         <v>24000000</v>
       </c>
-      <c r="H183" s="11">
+      <c r="M183" s="11">
         <v>24000000</v>
       </c>
-      <c r="I183" s="11">
+      <c r="N183" s="11">
         <v>24000000</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D184" s="9"/>
-      <c r="E184" s="9">
+      <c r="E184" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H184" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I184" s="9">
         <v>2763668</v>
       </c>
-      <c r="F184" s="9">
+      <c r="J184" s="9">
+        <v>2763668</v>
+      </c>
+      <c r="K184" s="9">
         <v>2681408</v>
       </c>
-      <c r="G184" s="9">
+      <c r="L184" s="9">
         <v>2681408</v>
       </c>
-      <c r="H184" s="9">
+      <c r="M184" s="9">
         <v>2681408</v>
       </c>
-      <c r="I184" s="9">
+      <c r="N184" s="9">
         <v>2681408</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C185" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D185" s="11"/>
-      <c r="E185" s="11">
+      <c r="E185" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I185" s="11">
+        <v>147750000</v>
+      </c>
+      <c r="J185" s="11">
         <v>164966667</v>
       </c>
-      <c r="F185" s="11">
+      <c r="K185" s="11">
         <v>163590000</v>
       </c>
-      <c r="G185" s="11">
+      <c r="L185" s="11">
         <v>167336538</v>
       </c>
-      <c r="H185" s="11">
+      <c r="M185" s="11">
         <v>180187500</v>
       </c>
-      <c r="I185" s="11">
+      <c r="N185" s="11">
         <v>180187500</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D186" s="9"/>
-      <c r="E186" s="9">
+      <c r="E186" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I186" s="9">
+        <v>45842105</v>
+      </c>
+      <c r="J186" s="9">
         <v>258944444</v>
       </c>
-      <c r="F186" s="9">
+      <c r="K186" s="9">
         <v>266937500</v>
       </c>
-      <c r="G186" s="9">
+      <c r="L186" s="9">
         <v>245263158</v>
       </c>
-      <c r="H186" s="9">
+      <c r="M186" s="9">
         <v>245263158</v>
       </c>
-      <c r="I186" s="9">
+      <c r="N186" s="9">
         <v>245263158</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D187" s="11"/>
-      <c r="E187" s="11">
+      <c r="E187" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H187" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I187" s="11">
+        <v>17098826</v>
+      </c>
+      <c r="J187" s="11">
         <v>2492093</v>
       </c>
-      <c r="F187" s="11">
+      <c r="K187" s="11">
         <v>2773278</v>
       </c>
-      <c r="G187" s="11">
+      <c r="L187" s="11">
         <v>16096836</v>
       </c>
-      <c r="H187" s="11">
+      <c r="M187" s="11">
         <v>17784139</v>
       </c>
-      <c r="I187" s="11">
+      <c r="N187" s="11">
         <v>20084641</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4387,8 +6647,13 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4397,8 +6662,13 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4407,10 +6677,15 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -4429,8 +6704,23 @@
       <c r="I191" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K191" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M191" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N191" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4439,10 +6729,15 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
@@ -4461,10 +6756,25 @@
       <c r="I193" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="9">
+        <v>0</v>
+      </c>
+      <c r="K193" s="9">
+        <v>0</v>
+      </c>
+      <c r="L193" s="9">
+        <v>0</v>
+      </c>
+      <c r="M193" s="9">
+        <v>0</v>
+      </c>
+      <c r="N193" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -4483,10 +6793,25 @@
       <c r="I194" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J194" s="11">
+        <v>0</v>
+      </c>
+      <c r="K194" s="11">
+        <v>0</v>
+      </c>
+      <c r="L194" s="11">
+        <v>0</v>
+      </c>
+      <c r="M194" s="11">
+        <v>0</v>
+      </c>
+      <c r="N194" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -4505,10 +6830,25 @@
       <c r="I195" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="9">
+        <v>0</v>
+      </c>
+      <c r="K195" s="9">
+        <v>0</v>
+      </c>
+      <c r="L195" s="9">
+        <v>0</v>
+      </c>
+      <c r="M195" s="9">
+        <v>0</v>
+      </c>
+      <c r="N195" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -4527,10 +6867,25 @@
       <c r="I196" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="11">
+        <v>0</v>
+      </c>
+      <c r="K196" s="11">
+        <v>0</v>
+      </c>
+      <c r="L196" s="11">
+        <v>0</v>
+      </c>
+      <c r="M196" s="11">
+        <v>0</v>
+      </c>
+      <c r="N196" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -4549,76 +6904,136 @@
       <c r="I197" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="9">
+        <v>0</v>
+      </c>
+      <c r="K197" s="9">
+        <v>0</v>
+      </c>
+      <c r="L197" s="9">
+        <v>0</v>
+      </c>
+      <c r="M197" s="9">
+        <v>0</v>
+      </c>
+      <c r="N197" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11">
+        <v>24313</v>
+      </c>
+      <c r="F198" s="11">
+        <v>12552</v>
+      </c>
+      <c r="G198" s="11">
+        <v>18346</v>
+      </c>
+      <c r="H198" s="11">
+        <v>37763</v>
+      </c>
+      <c r="I198" s="11">
+        <v>104503</v>
+      </c>
+      <c r="J198" s="11">
         <v>16305</v>
       </c>
-      <c r="F198" s="11">
+      <c r="K198" s="11">
         <v>103017</v>
       </c>
-      <c r="G198" s="11">
+      <c r="L198" s="11">
         <v>71096</v>
       </c>
-      <c r="H198" s="11">
+      <c r="M198" s="11">
         <v>221254</v>
       </c>
-      <c r="I198" s="11">
+      <c r="N198" s="11">
         <v>311726</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9">
+        <v>72</v>
+      </c>
+      <c r="F199" s="9">
+        <v>1940</v>
+      </c>
+      <c r="G199" s="9">
+        <v>1647</v>
+      </c>
+      <c r="H199" s="9">
+        <v>1636</v>
+      </c>
+      <c r="I199" s="9">
+        <v>1636</v>
+      </c>
+      <c r="J199" s="9">
         <v>1638</v>
       </c>
-      <c r="F199" s="9">
+      <c r="K199" s="9">
         <v>2692</v>
       </c>
-      <c r="G199" s="9">
+      <c r="L199" s="9">
         <v>2252</v>
       </c>
-      <c r="H199" s="9">
+      <c r="M199" s="9">
         <v>75639</v>
       </c>
-      <c r="I199" s="9">
+      <c r="N199" s="9">
         <v>47572</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11">
+        <v>46192</v>
+      </c>
+      <c r="F200" s="11">
+        <v>67562</v>
+      </c>
+      <c r="G200" s="11">
+        <v>74082</v>
+      </c>
+      <c r="H200" s="11">
+        <v>56292</v>
+      </c>
+      <c r="I200" s="11">
+        <v>89050</v>
+      </c>
+      <c r="J200" s="11">
         <v>38646</v>
       </c>
-      <c r="F200" s="11">
+      <c r="K200" s="11">
         <v>147344</v>
       </c>
-      <c r="G200" s="11">
+      <c r="L200" s="11">
         <v>169223</v>
       </c>
-      <c r="H200" s="11">
+      <c r="M200" s="11">
         <v>119693</v>
       </c>
-      <c r="I200" s="11">
+      <c r="N200" s="11">
         <v>38008</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
@@ -4637,52 +7052,97 @@
       <c r="I201" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="9">
+        <v>0</v>
+      </c>
+      <c r="K201" s="9">
+        <v>0</v>
+      </c>
+      <c r="L201" s="9">
+        <v>0</v>
+      </c>
+      <c r="M201" s="9">
+        <v>0</v>
+      </c>
+      <c r="N201" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11">
+        <v>98732</v>
+      </c>
+      <c r="F202" s="11">
+        <v>98701</v>
+      </c>
+      <c r="G202" s="11">
+        <v>129547</v>
+      </c>
+      <c r="H202" s="11">
+        <v>195920</v>
+      </c>
+      <c r="I202" s="11">
+        <v>52353</v>
+      </c>
+      <c r="J202" s="11">
         <v>236874</v>
       </c>
-      <c r="F202" s="11">
+      <c r="K202" s="11">
         <v>16447</v>
       </c>
-      <c r="G202" s="11">
+      <c r="L202" s="11">
         <v>196799</v>
       </c>
-      <c r="H202" s="11">
+      <c r="M202" s="11">
         <v>91729</v>
       </c>
-      <c r="I202" s="11">
+      <c r="N202" s="11">
         <v>230194</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15">
+        <v>169309</v>
+      </c>
+      <c r="F203" s="15">
+        <v>180755</v>
+      </c>
+      <c r="G203" s="15">
+        <v>223622</v>
+      </c>
+      <c r="H203" s="15">
+        <v>291611</v>
+      </c>
+      <c r="I203" s="15">
+        <v>247542</v>
+      </c>
+      <c r="J203" s="15">
         <v>293463</v>
       </c>
-      <c r="F203" s="15">
+      <c r="K203" s="15">
         <v>269500</v>
       </c>
-      <c r="G203" s="15">
+      <c r="L203" s="15">
         <v>439370</v>
       </c>
-      <c r="H203" s="15">
+      <c r="M203" s="15">
         <v>508315</v>
       </c>
-      <c r="I203" s="15">
+      <c r="N203" s="15">
         <v>627500</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4691,8 +7151,13 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -4701,8 +7166,13 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -4711,10 +7181,15 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+    </row>
+    <row r="207" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -4723,8 +7198,13 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4733,13 +7213,18 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -4747,13 +7232,18 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -4761,13 +7251,18 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
@@ -4775,123 +7270,128 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>

--- a/database/industries/kashi/kazar/cost/quarterly.xlsx
+++ b/database/industries/kashi/kazar/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3200684-3976-4A8E-AD7B-772989DCEE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973AF3B0-9935-4310-9A59-5F477248C18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -746,12 +746,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -766,7 +766,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -815,7 +815,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -864,7 +864,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -901,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -916,155 +916,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>50221</v>
+        <v>60067</v>
       </c>
       <c r="F10" s="9">
-        <v>60067</v>
+        <v>81549</v>
       </c>
       <c r="G10" s="9">
-        <v>81549</v>
+        <v>64288</v>
       </c>
       <c r="H10" s="9">
-        <v>64288</v>
+        <v>24549</v>
       </c>
       <c r="I10" s="9">
-        <v>24549</v>
+        <v>54062</v>
       </c>
       <c r="J10" s="9">
-        <v>54062</v>
+        <v>167095</v>
       </c>
       <c r="K10" s="9">
-        <v>167095</v>
+        <v>122186</v>
       </c>
       <c r="L10" s="9">
-        <v>122186</v>
+        <v>99578</v>
       </c>
       <c r="M10" s="9">
-        <v>99578</v>
+        <v>234993</v>
       </c>
       <c r="N10" s="9">
-        <v>234993</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>103437</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>51719</v>
+        <v>66022</v>
       </c>
       <c r="F11" s="11">
-        <v>66022</v>
+        <v>83132</v>
       </c>
       <c r="G11" s="11">
-        <v>83132</v>
+        <v>82387</v>
       </c>
       <c r="H11" s="11">
-        <v>82387</v>
+        <v>74680</v>
       </c>
       <c r="I11" s="11">
-        <v>74680</v>
+        <v>30537</v>
       </c>
       <c r="J11" s="11">
-        <v>30537</v>
+        <v>151740</v>
       </c>
       <c r="K11" s="11">
-        <v>151740</v>
+        <v>182489</v>
       </c>
       <c r="L11" s="11">
-        <v>182489</v>
+        <v>78976</v>
       </c>
       <c r="M11" s="11">
-        <v>78976</v>
+        <v>75735</v>
       </c>
       <c r="N11" s="11">
-        <v>75735</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>189027</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>169309</v>
+        <v>180755</v>
       </c>
       <c r="F12" s="9">
-        <v>180755</v>
+        <v>223622</v>
       </c>
       <c r="G12" s="9">
-        <v>223622</v>
+        <v>291611</v>
       </c>
       <c r="H12" s="9">
-        <v>291611</v>
+        <v>247542</v>
       </c>
       <c r="I12" s="9">
-        <v>247542</v>
+        <v>293463</v>
       </c>
       <c r="J12" s="9">
-        <v>293463</v>
+        <v>269500</v>
       </c>
       <c r="K12" s="9">
-        <v>269500</v>
+        <v>439370</v>
       </c>
       <c r="L12" s="9">
-        <v>439370</v>
+        <v>508315</v>
       </c>
       <c r="M12" s="9">
-        <v>508315</v>
+        <v>627500</v>
       </c>
       <c r="N12" s="9">
-        <v>627500</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>407140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>271249</v>
+        <v>306844</v>
       </c>
       <c r="F13" s="13">
-        <v>306844</v>
+        <v>388303</v>
       </c>
       <c r="G13" s="13">
-        <v>388303</v>
+        <v>438286</v>
       </c>
       <c r="H13" s="13">
-        <v>438286</v>
+        <v>346771</v>
       </c>
       <c r="I13" s="13">
-        <v>346771</v>
+        <v>378062</v>
       </c>
       <c r="J13" s="13">
-        <v>378062</v>
+        <v>588335</v>
       </c>
       <c r="K13" s="13">
-        <v>588335</v>
+        <v>744045</v>
       </c>
       <c r="L13" s="13">
-        <v>744045</v>
+        <v>686869</v>
       </c>
       <c r="M13" s="13">
-        <v>686869</v>
+        <v>938228</v>
       </c>
       <c r="N13" s="13">
-        <v>938228</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>699604</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1101,81 +1101,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>271249</v>
+        <v>306844</v>
       </c>
       <c r="F15" s="13">
-        <v>306844</v>
+        <v>388303</v>
       </c>
       <c r="G15" s="13">
-        <v>388303</v>
+        <v>438286</v>
       </c>
       <c r="H15" s="13">
-        <v>438286</v>
+        <v>346771</v>
       </c>
       <c r="I15" s="13">
-        <v>346771</v>
+        <v>378062</v>
       </c>
       <c r="J15" s="13">
-        <v>378062</v>
+        <v>588335</v>
       </c>
       <c r="K15" s="13">
-        <v>588335</v>
+        <v>744045</v>
       </c>
       <c r="L15" s="13">
-        <v>744045</v>
+        <v>686869</v>
       </c>
       <c r="M15" s="13">
-        <v>686869</v>
+        <v>938228</v>
       </c>
       <c r="N15" s="13">
-        <v>938228</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>699604</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>3324</v>
+        <v>-10203</v>
       </c>
       <c r="F16" s="9">
-        <v>-10203</v>
+        <v>-9921</v>
       </c>
       <c r="G16" s="9">
-        <v>-9921</v>
+        <v>-1629</v>
       </c>
       <c r="H16" s="9">
-        <v>-1629</v>
+        <v>17855</v>
       </c>
       <c r="I16" s="9">
-        <v>17855</v>
+        <v>2434</v>
       </c>
       <c r="J16" s="9">
-        <v>2434</v>
+        <v>1444</v>
       </c>
       <c r="K16" s="9">
-        <v>1444</v>
+        <v>13757</v>
       </c>
       <c r="L16" s="9">
-        <v>13757</v>
+        <v>-23917</v>
       </c>
       <c r="M16" s="9">
-        <v>-23917</v>
+        <v>-139297</v>
       </c>
       <c r="N16" s="9">
-        <v>-139297</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23803</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1212,44 +1212,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>274573</v>
+        <v>296641</v>
       </c>
       <c r="F18" s="15">
-        <v>296641</v>
+        <v>378382</v>
       </c>
       <c r="G18" s="15">
-        <v>378382</v>
+        <v>436657</v>
       </c>
       <c r="H18" s="15">
-        <v>436657</v>
+        <v>364626</v>
       </c>
       <c r="I18" s="15">
-        <v>364626</v>
+        <v>380496</v>
       </c>
       <c r="J18" s="15">
-        <v>380496</v>
+        <v>589779</v>
       </c>
       <c r="K18" s="15">
-        <v>589779</v>
+        <v>757802</v>
       </c>
       <c r="L18" s="15">
-        <v>757802</v>
+        <v>662952</v>
       </c>
       <c r="M18" s="15">
-        <v>662952</v>
+        <v>798931</v>
       </c>
       <c r="N18" s="15">
-        <v>798931</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>723407</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1259,118 +1259,118 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>104975</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>114792</v>
       </c>
       <c r="H19" s="11">
-        <v>114792</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>108882</v>
       </c>
       <c r="K19" s="11">
-        <v>771</v>
+        <v>115039</v>
       </c>
       <c r="L19" s="11">
-        <v>115039</v>
+        <v>165000</v>
       </c>
       <c r="M19" s="11">
-        <v>165000</v>
+        <v>214700</v>
       </c>
       <c r="N19" s="11">
-        <v>214700</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>327582</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>21989</v>
+        <v>-17865</v>
       </c>
       <c r="F20" s="9">
-        <v>-17865</v>
+        <v>-114792</v>
       </c>
       <c r="G20" s="9">
-        <v>-9817</v>
+        <v>-92027</v>
       </c>
       <c r="H20" s="9">
-        <v>-92027</v>
+        <v>-17626</v>
       </c>
       <c r="I20" s="9">
-        <v>-17626</v>
+        <v>771</v>
       </c>
       <c r="J20" s="9">
-        <v>771</v>
+        <v>-115039</v>
       </c>
       <c r="K20" s="9">
-        <v>-115039</v>
+        <v>-165000</v>
       </c>
       <c r="L20" s="9">
-        <v>-165000</v>
+        <v>-214700</v>
       </c>
       <c r="M20" s="9">
-        <v>-214700</v>
+        <v>-327582</v>
       </c>
       <c r="N20" s="9">
-        <v>-327582</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-196822</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>296562</v>
+        <v>278776</v>
       </c>
       <c r="F21" s="13">
-        <v>278776</v>
+        <v>368565</v>
       </c>
       <c r="G21" s="13">
-        <v>368565</v>
+        <v>459422</v>
       </c>
       <c r="H21" s="13">
-        <v>459422</v>
+        <v>347000</v>
       </c>
       <c r="I21" s="13">
-        <v>347000</v>
+        <v>381267</v>
       </c>
       <c r="J21" s="13">
-        <v>381267</v>
+        <v>583622</v>
       </c>
       <c r="K21" s="13">
-        <v>583622</v>
+        <v>707841</v>
       </c>
       <c r="L21" s="13">
-        <v>707841</v>
+        <v>613252</v>
       </c>
       <c r="M21" s="13">
-        <v>613252</v>
+        <v>686049</v>
       </c>
       <c r="N21" s="13">
-        <v>686049</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>854167</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>7659</v>
+        <v>-7659</v>
       </c>
       <c r="F22" s="9">
-        <v>-7659</v>
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -1397,44 +1397,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>304221</v>
+        <v>271117</v>
       </c>
       <c r="F23" s="13">
-        <v>271117</v>
+        <v>368565</v>
       </c>
       <c r="G23" s="13">
-        <v>368565</v>
+        <v>459422</v>
       </c>
       <c r="H23" s="13">
-        <v>459422</v>
+        <v>347000</v>
       </c>
       <c r="I23" s="13">
-        <v>347000</v>
+        <v>381267</v>
       </c>
       <c r="J23" s="13">
-        <v>381267</v>
+        <v>583622</v>
       </c>
       <c r="K23" s="13">
-        <v>583622</v>
+        <v>707841</v>
       </c>
       <c r="L23" s="13">
-        <v>707841</v>
+        <v>613252</v>
       </c>
       <c r="M23" s="13">
-        <v>613252</v>
+        <v>686049</v>
       </c>
       <c r="N23" s="13">
-        <v>686049</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>854167</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1449,7 +1449,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1479,7 +1479,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1531,7 +1531,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1540,37 +1540,37 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F29" s="9">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G29" s="9">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H29" s="9">
         <v>125</v>
       </c>
       <c r="I29" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J29" s="9">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K29" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L29" s="9">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M29" s="9">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N29" s="9">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -1579,37 +1579,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>49682</v>
+        <v>33183</v>
       </c>
       <c r="F30" s="11">
-        <v>33183</v>
+        <v>33732</v>
       </c>
       <c r="G30" s="11">
-        <v>33732</v>
+        <v>21358</v>
       </c>
       <c r="H30" s="11">
-        <v>21358</v>
+        <v>27417</v>
       </c>
       <c r="I30" s="11">
-        <v>27417</v>
+        <v>24092</v>
       </c>
       <c r="J30" s="11">
-        <v>24092</v>
+        <v>17286</v>
       </c>
       <c r="K30" s="11">
-        <v>17286</v>
+        <v>15851</v>
       </c>
       <c r="L30" s="11">
-        <v>15851</v>
+        <v>19536</v>
       </c>
       <c r="M30" s="11">
-        <v>19536</v>
+        <v>0</v>
       </c>
       <c r="N30" s="11">
-        <v>26777</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26293</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
@@ -1618,13 +1618,13 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>2325</v>
+        <v>1423</v>
       </c>
       <c r="F31" s="9">
-        <v>1423</v>
+        <v>1084</v>
       </c>
       <c r="G31" s="9">
-        <v>1084</v>
+        <v>1521</v>
       </c>
       <c r="H31" s="9">
         <v>1521</v>
@@ -1633,22 +1633,22 @@
         <v>1521</v>
       </c>
       <c r="J31" s="9">
-        <v>1521</v>
+        <v>1697</v>
       </c>
       <c r="K31" s="9">
-        <v>1697</v>
+        <v>2014</v>
       </c>
       <c r="L31" s="9">
-        <v>2014</v>
+        <v>1964</v>
       </c>
       <c r="M31" s="9">
-        <v>1964</v>
+        <v>0</v>
       </c>
       <c r="N31" s="9">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
@@ -1666,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="H32" s="11">
+        <v>18736</v>
+      </c>
+      <c r="I32" s="11">
         <v>1</v>
-      </c>
-      <c r="I32" s="11">
-        <v>18736</v>
       </c>
       <c r="J32" s="11">
         <v>1</v>
@@ -1681,13 +1681,13 @@
         <v>1</v>
       </c>
       <c r="M32" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
@@ -1696,37 +1696,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>2138</v>
+        <v>2115</v>
       </c>
       <c r="F33" s="9">
-        <v>2115</v>
+        <v>2291</v>
       </c>
       <c r="G33" s="9">
-        <v>2291</v>
+        <v>1108</v>
       </c>
       <c r="H33" s="9">
         <v>1108</v>
       </c>
       <c r="I33" s="9">
-        <v>1108</v>
+        <v>1134</v>
       </c>
       <c r="J33" s="9">
         <v>1134</v>
       </c>
       <c r="K33" s="9">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="L33" s="9">
         <v>1108</v>
       </c>
       <c r="M33" s="9">
-        <v>1108</v>
+        <v>0</v>
       </c>
       <c r="N33" s="9">
         <v>1108</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
@@ -1738,34 +1738,34 @@
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G34" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H34" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I34" s="11">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J34" s="11">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K34" s="11">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L34" s="11">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M34" s="11">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="N34" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
@@ -1774,37 +1774,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F35" s="9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G35" s="9">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H35" s="9">
+        <v>32</v>
+      </c>
+      <c r="I35" s="9">
         <v>38</v>
       </c>
-      <c r="I35" s="9">
-        <v>32</v>
-      </c>
       <c r="J35" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L35" s="9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M35" s="9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N35" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>37</v>
       </c>
@@ -1813,74 +1813,74 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>4435</v>
+        <v>4274</v>
       </c>
       <c r="F36" s="11">
-        <v>4274</v>
+        <v>4653</v>
       </c>
       <c r="G36" s="11">
-        <v>4653</v>
+        <v>4286</v>
       </c>
       <c r="H36" s="11">
-        <v>4286</v>
+        <v>24941</v>
       </c>
       <c r="I36" s="11">
-        <v>24941</v>
+        <v>4260</v>
       </c>
       <c r="J36" s="11">
-        <v>4260</v>
+        <v>31870</v>
       </c>
       <c r="K36" s="11">
-        <v>31870</v>
+        <v>3850</v>
       </c>
       <c r="L36" s="11">
-        <v>3850</v>
+        <v>4172</v>
       </c>
       <c r="M36" s="11">
-        <v>4172</v>
+        <v>0</v>
       </c>
       <c r="N36" s="11">
-        <v>4489</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>58771</v>
+        <v>41174</v>
       </c>
       <c r="F37" s="15">
-        <v>41174</v>
+        <v>42021</v>
       </c>
       <c r="G37" s="15">
-        <v>42021</v>
+        <v>28498</v>
       </c>
       <c r="H37" s="15">
-        <v>28498</v>
+        <v>73938</v>
       </c>
       <c r="I37" s="15">
-        <v>73938</v>
+        <v>31180</v>
       </c>
       <c r="J37" s="15">
-        <v>31180</v>
+        <v>52145</v>
       </c>
       <c r="K37" s="15">
-        <v>52145</v>
+        <v>23046</v>
       </c>
       <c r="L37" s="15">
-        <v>23046</v>
+        <v>26999</v>
       </c>
       <c r="M37" s="15">
-        <v>26999</v>
+        <v>0</v>
       </c>
       <c r="N37" s="15">
-        <v>34092</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1895,7 +1895,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1910,7 +1910,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1925,7 +1925,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1977,7 +1977,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -1986,37 +1986,37 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F43" s="9">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G43" s="9">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="H43" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I43" s="9">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="J43" s="9">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="K43" s="9">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="L43" s="9">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="M43" s="9">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="N43" s="9">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>31</v>
       </c>
@@ -2025,37 +2025,37 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>16203</v>
+        <v>24847</v>
       </c>
       <c r="F44" s="11">
-        <v>24847</v>
+        <v>10392</v>
       </c>
       <c r="G44" s="11">
-        <v>10392</v>
+        <v>33790</v>
       </c>
       <c r="H44" s="11">
-        <v>33790</v>
+        <v>13168</v>
       </c>
       <c r="I44" s="11">
-        <v>13168</v>
+        <v>8069</v>
       </c>
       <c r="J44" s="11">
-        <v>8069</v>
+        <v>13639</v>
       </c>
       <c r="K44" s="11">
-        <v>13639</v>
+        <v>24034</v>
       </c>
       <c r="L44" s="11">
-        <v>24034</v>
+        <v>6641</v>
       </c>
       <c r="M44" s="11">
-        <v>6641</v>
+        <v>13874</v>
       </c>
       <c r="N44" s="11">
-        <v>13874</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17935</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
@@ -2064,37 +2064,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="F45" s="9">
-        <v>301</v>
+        <v>545</v>
       </c>
       <c r="G45" s="9">
-        <v>545</v>
+        <v>201</v>
       </c>
       <c r="H45" s="9">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="J45" s="9">
-        <v>276</v>
+        <v>739</v>
       </c>
       <c r="K45" s="9">
-        <v>739</v>
+        <v>95</v>
       </c>
       <c r="L45" s="9">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M45" s="9">
-        <v>0</v>
+        <v>1566</v>
       </c>
       <c r="N45" s="9">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>33</v>
       </c>
@@ -2106,34 +2106,34 @@
         <v>0</v>
       </c>
       <c r="F46" s="11">
-        <v>0</v>
+        <v>150591</v>
       </c>
       <c r="G46" s="11">
-        <v>150591</v>
+        <v>112475</v>
       </c>
       <c r="H46" s="11">
-        <v>112475</v>
+        <v>-112288</v>
       </c>
       <c r="I46" s="11">
-        <v>-112288</v>
+        <v>94</v>
       </c>
       <c r="J46" s="11">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="K46" s="11">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="L46" s="11">
-        <v>98</v>
+        <v>153571</v>
       </c>
       <c r="M46" s="11">
-        <v>153571</v>
+        <v>160706</v>
       </c>
       <c r="N46" s="11">
-        <v>160706</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51211</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>34</v>
       </c>
@@ -2142,16 +2142,16 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="F47" s="9">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G47" s="9">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="H47" s="9">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="I47" s="9">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>35</v>
       </c>
@@ -2181,37 +2181,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F48" s="11">
-        <v>60</v>
+        <v>-130</v>
       </c>
       <c r="G48" s="11">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="H48" s="11">
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J48" s="11">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="K48" s="11">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="L48" s="11">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M48" s="11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>36</v>
       </c>
@@ -2229,28 +2229,28 @@
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J49" s="9">
+        <v>-3</v>
+      </c>
+      <c r="K49" s="9">
         <v>3</v>
       </c>
-      <c r="K49" s="9">
+      <c r="L49" s="9">
         <v>-3</v>
       </c>
-      <c r="L49" s="9">
-        <v>3</v>
-      </c>
       <c r="M49" s="9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N49" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>37</v>
       </c>
@@ -2259,74 +2259,74 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>826</v>
+        <v>1145</v>
       </c>
       <c r="F50" s="11">
-        <v>1145</v>
+        <v>-859</v>
       </c>
       <c r="G50" s="11">
-        <v>-859</v>
+        <v>63645</v>
       </c>
       <c r="H50" s="11">
-        <v>63645</v>
+        <v>-19754</v>
       </c>
       <c r="I50" s="11">
-        <v>-19754</v>
+        <v>27675</v>
       </c>
       <c r="J50" s="11">
-        <v>27675</v>
+        <v>-67891</v>
       </c>
       <c r="K50" s="11">
-        <v>-67891</v>
+        <v>10957</v>
       </c>
       <c r="L50" s="11">
-        <v>10957</v>
+        <v>6071</v>
       </c>
       <c r="M50" s="11">
-        <v>6071</v>
+        <v>3648</v>
       </c>
       <c r="N50" s="11">
-        <v>3648</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>17741</v>
+        <v>26761</v>
       </c>
       <c r="F51" s="15">
-        <v>26761</v>
+        <v>160764</v>
       </c>
       <c r="G51" s="15">
-        <v>160764</v>
+        <v>210395</v>
       </c>
       <c r="H51" s="15">
-        <v>210395</v>
+        <v>-118635</v>
       </c>
       <c r="I51" s="15">
-        <v>-118635</v>
+        <v>36240</v>
       </c>
       <c r="J51" s="15">
-        <v>36240</v>
+        <v>-53284</v>
       </c>
       <c r="K51" s="15">
-        <v>-53284</v>
+        <v>35380</v>
       </c>
       <c r="L51" s="15">
-        <v>35380</v>
+        <v>166408</v>
       </c>
       <c r="M51" s="15">
-        <v>166408</v>
+        <v>179999</v>
       </c>
       <c r="N51" s="15">
-        <v>179999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>73960</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2341,7 +2341,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2356,7 +2356,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2371,7 +2371,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>39</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2423,7 +2423,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -2432,37 +2432,37 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F57" s="9">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="G57" s="9">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="H57" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9">
+        <v>118</v>
+      </c>
+      <c r="J57" s="9">
+        <v>151</v>
+      </c>
+      <c r="K57" s="9">
         <v>179</v>
       </c>
-      <c r="J57" s="9">
-        <v>118</v>
-      </c>
-      <c r="K57" s="9">
-        <v>151</v>
-      </c>
       <c r="L57" s="9">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="M57" s="9">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="N57" s="9">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>31</v>
       </c>
@@ -2471,37 +2471,37 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>32702</v>
+        <v>24298</v>
       </c>
       <c r="F58" s="11">
-        <v>24298</v>
+        <v>22767</v>
       </c>
       <c r="G58" s="11">
-        <v>22767</v>
+        <v>27731</v>
       </c>
       <c r="H58" s="11">
-        <v>27731</v>
+        <v>16492</v>
       </c>
       <c r="I58" s="11">
-        <v>16492</v>
+        <v>14875</v>
       </c>
       <c r="J58" s="11">
-        <v>14875</v>
+        <v>15112</v>
       </c>
       <c r="K58" s="11">
-        <v>15112</v>
+        <v>20349</v>
       </c>
       <c r="L58" s="11">
-        <v>20349</v>
+        <v>6601</v>
       </c>
       <c r="M58" s="11">
-        <v>6601</v>
+        <v>14358</v>
       </c>
       <c r="N58" s="11">
-        <v>14358</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18099</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>32</v>
       </c>
@@ -2510,37 +2510,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>1318</v>
+        <v>640</v>
       </c>
       <c r="F59" s="9">
-        <v>640</v>
+        <v>108</v>
       </c>
       <c r="G59" s="9">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H59" s="9">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J59" s="9">
-        <v>100</v>
+        <v>-140</v>
       </c>
       <c r="K59" s="9">
-        <v>-140</v>
+        <v>145</v>
       </c>
       <c r="L59" s="9">
-        <v>145</v>
+        <v>392</v>
       </c>
       <c r="M59" s="9">
-        <v>392</v>
+        <v>1091</v>
       </c>
       <c r="N59" s="9">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>33</v>
       </c>
@@ -2552,34 +2552,34 @@
         <v>0</v>
       </c>
       <c r="F60" s="11">
-        <v>0</v>
+        <v>150591</v>
       </c>
       <c r="G60" s="11">
-        <v>150591</v>
+        <v>93740</v>
       </c>
       <c r="H60" s="11">
-        <v>93740</v>
+        <v>-93553</v>
       </c>
       <c r="I60" s="11">
-        <v>-93553</v>
+        <v>94</v>
       </c>
       <c r="J60" s="11">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="K60" s="11">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="L60" s="11">
-        <v>98</v>
+        <v>153571</v>
       </c>
       <c r="M60" s="11">
-        <v>153571</v>
+        <v>160706</v>
       </c>
       <c r="N60" s="11">
-        <v>160706</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51211</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
@@ -2588,16 +2588,16 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="9">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="G61" s="9">
-        <v>1157</v>
+        <v>106</v>
       </c>
       <c r="H61" s="9">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="I61" s="9">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>35</v>
       </c>
@@ -2630,34 +2630,34 @@
         <v>0</v>
       </c>
       <c r="F62" s="11">
-        <v>0</v>
+        <v>-131</v>
       </c>
       <c r="G62" s="11">
-        <v>-131</v>
+        <v>3</v>
       </c>
       <c r="H62" s="11">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I62" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J62" s="11">
         <v>0</v>
       </c>
       <c r="K62" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L62" s="11">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="M62" s="11">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="N62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>36</v>
       </c>
@@ -2666,22 +2666,22 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F63" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G63" s="9">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H63" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I63" s="9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J63" s="9">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K63" s="9">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>37</v>
       </c>
@@ -2705,74 +2705,74 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>987</v>
+        <v>766</v>
       </c>
       <c r="F64" s="11">
-        <v>766</v>
+        <v>-466</v>
       </c>
       <c r="G64" s="11">
-        <v>-466</v>
+        <v>42990</v>
       </c>
       <c r="H64" s="11">
-        <v>42990</v>
+        <v>901</v>
       </c>
       <c r="I64" s="11">
-        <v>901</v>
+        <v>65</v>
       </c>
       <c r="J64" s="11">
-        <v>65</v>
+        <v>-39416</v>
       </c>
       <c r="K64" s="11">
-        <v>-39416</v>
+        <v>10635</v>
       </c>
       <c r="L64" s="11">
-        <v>10635</v>
+        <v>6215</v>
       </c>
       <c r="M64" s="11">
-        <v>6215</v>
+        <v>3612</v>
       </c>
       <c r="N64" s="11">
-        <v>3612</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
-        <v>35338</v>
+        <v>25914</v>
       </c>
       <c r="F65" s="15">
-        <v>25914</v>
+        <v>174288</v>
       </c>
       <c r="G65" s="15">
-        <v>174288</v>
+        <v>164955</v>
       </c>
       <c r="H65" s="15">
-        <v>164955</v>
+        <v>-75878</v>
       </c>
       <c r="I65" s="15">
-        <v>-75878</v>
+        <v>15275</v>
       </c>
       <c r="J65" s="15">
-        <v>15275</v>
+        <v>-24280</v>
       </c>
       <c r="K65" s="15">
-        <v>-24280</v>
+        <v>31427</v>
       </c>
       <c r="L65" s="15">
-        <v>31427</v>
+        <v>166979</v>
       </c>
       <c r="M65" s="15">
-        <v>166979</v>
+        <v>179972</v>
       </c>
       <c r="N65" s="15">
-        <v>179972</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74082</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2787,7 +2787,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2802,7 +2802,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2817,7 +2817,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>40</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2869,7 +2869,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -2878,25 +2878,25 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F71" s="9">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G71" s="9">
+        <v>125</v>
+      </c>
+      <c r="H71" s="9">
         <v>126</v>
       </c>
-      <c r="H71" s="9">
-        <v>125</v>
-      </c>
       <c r="I71" s="9">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="J71" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K71" s="9">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L71" s="9">
         <v>95</v>
@@ -2908,7 +2908,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
@@ -2917,37 +2917,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>33183</v>
+        <v>33732</v>
       </c>
       <c r="F72" s="11">
-        <v>33732</v>
+        <v>21357</v>
       </c>
       <c r="G72" s="11">
-        <v>21357</v>
+        <v>27417</v>
       </c>
       <c r="H72" s="11">
-        <v>27417</v>
+        <v>24092</v>
       </c>
       <c r="I72" s="11">
-        <v>24092</v>
+        <v>17286</v>
       </c>
       <c r="J72" s="11">
-        <v>17286</v>
+        <v>15851</v>
       </c>
       <c r="K72" s="11">
-        <v>15851</v>
+        <v>19536</v>
       </c>
       <c r="L72" s="11">
-        <v>19536</v>
+        <v>26777</v>
       </c>
       <c r="M72" s="11">
-        <v>26777</v>
+        <v>26293</v>
       </c>
       <c r="N72" s="11">
-        <v>26293</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26129</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>32</v>
       </c>
@@ -2956,10 +2956,10 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>1423</v>
+        <v>1084</v>
       </c>
       <c r="F73" s="9">
-        <v>1084</v>
+        <v>1521</v>
       </c>
       <c r="G73" s="9">
         <v>1521</v>
@@ -2968,25 +2968,25 @@
         <v>1521</v>
       </c>
       <c r="I73" s="9">
-        <v>1521</v>
+        <v>1697</v>
       </c>
       <c r="J73" s="9">
-        <v>1697</v>
+        <v>2576</v>
       </c>
       <c r="K73" s="9">
-        <v>2576</v>
+        <v>1964</v>
       </c>
       <c r="L73" s="9">
-        <v>1964</v>
+        <v>1571</v>
       </c>
       <c r="M73" s="9">
-        <v>1571</v>
+        <v>2046</v>
       </c>
       <c r="N73" s="9">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>33</v>
       </c>
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="11">
+        <v>18736</v>
+      </c>
+      <c r="H74" s="11">
         <v>1</v>
-      </c>
-      <c r="H74" s="11">
-        <v>18736</v>
       </c>
       <c r="I74" s="11">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
@@ -3034,22 +3034,22 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>2115</v>
+        <v>2291</v>
       </c>
       <c r="F75" s="9">
-        <v>2291</v>
+        <v>1134</v>
       </c>
       <c r="G75" s="9">
+        <v>1108</v>
+      </c>
+      <c r="H75" s="9">
         <v>1134</v>
-      </c>
-      <c r="H75" s="9">
-        <v>1108</v>
       </c>
       <c r="I75" s="9">
         <v>1134</v>
       </c>
       <c r="J75" s="9">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="K75" s="9">
         <v>1108</v>
@@ -3064,7 +3064,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>35</v>
       </c>
@@ -3073,37 +3073,37 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F76" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G76" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H76" s="11">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I76" s="11">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J76" s="11">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K76" s="11">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L76" s="11">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="M76" s="11">
         <v>32</v>
       </c>
       <c r="N76" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>36</v>
       </c>
@@ -3112,25 +3112,25 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F77" s="9">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G77" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H77" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J77" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K77" s="9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L77" s="9">
         <v>19</v>
@@ -3139,10 +3139,10 @@
         <v>19</v>
       </c>
       <c r="N77" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>37</v>
       </c>
@@ -3151,74 +3151,74 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>4274</v>
+        <v>4653</v>
       </c>
       <c r="F78" s="11">
-        <v>4653</v>
+        <v>4260</v>
       </c>
       <c r="G78" s="11">
+        <v>24941</v>
+      </c>
+      <c r="H78" s="11">
         <v>4260</v>
       </c>
-      <c r="H78" s="11">
-        <v>24941</v>
-      </c>
       <c r="I78" s="11">
-        <v>4260</v>
+        <v>31870</v>
       </c>
       <c r="J78" s="11">
-        <v>31870</v>
+        <v>3383</v>
       </c>
       <c r="K78" s="11">
-        <v>3383</v>
+        <v>4172</v>
       </c>
       <c r="L78" s="11">
-        <v>4172</v>
+        <v>4489</v>
       </c>
       <c r="M78" s="11">
-        <v>4489</v>
+        <v>4525</v>
       </c>
       <c r="N78" s="11">
-        <v>4525</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>41174</v>
+        <v>42021</v>
       </c>
       <c r="F79" s="15">
-        <v>42021</v>
+        <v>28497</v>
       </c>
       <c r="G79" s="15">
-        <v>28497</v>
+        <v>73938</v>
       </c>
       <c r="H79" s="15">
-        <v>73938</v>
+        <v>31180</v>
       </c>
       <c r="I79" s="15">
-        <v>31180</v>
+        <v>52145</v>
       </c>
       <c r="J79" s="15">
-        <v>52145</v>
+        <v>23141</v>
       </c>
       <c r="K79" s="15">
-        <v>23141</v>
+        <v>26999</v>
       </c>
       <c r="L79" s="15">
-        <v>26999</v>
+        <v>34092</v>
       </c>
       <c r="M79" s="15">
-        <v>34092</v>
+        <v>34119</v>
       </c>
       <c r="N79" s="15">
-        <v>34119</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33997</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3233,7 +3233,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3248,7 +3248,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3263,7 +3263,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>41</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3315,7 +3315,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -3324,37 +3324,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>8439</v>
+        <v>7955</v>
       </c>
       <c r="F85" s="9">
-        <v>7955</v>
+        <v>12317</v>
       </c>
       <c r="G85" s="9">
-        <v>12317</v>
+        <v>11594</v>
       </c>
       <c r="H85" s="9">
-        <v>11594</v>
+        <v>11592</v>
       </c>
       <c r="I85" s="9">
-        <v>11592</v>
+        <v>26622</v>
       </c>
       <c r="J85" s="9">
-        <v>26622</v>
+        <v>10546</v>
       </c>
       <c r="K85" s="9">
-        <v>10546</v>
+        <v>10109</v>
       </c>
       <c r="L85" s="9">
-        <v>10109</v>
+        <v>8901</v>
       </c>
       <c r="M85" s="9">
-        <v>8901</v>
+        <v>0</v>
       </c>
       <c r="N85" s="9">
-        <v>8902</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>31</v>
       </c>
@@ -3363,37 +3363,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>11767</v>
+        <v>10390</v>
       </c>
       <c r="F86" s="11">
-        <v>10390</v>
+        <v>12584</v>
       </c>
       <c r="G86" s="11">
-        <v>12584</v>
+        <v>8714</v>
       </c>
       <c r="H86" s="11">
-        <v>8714</v>
+        <v>5177</v>
       </c>
       <c r="I86" s="11">
-        <v>5177</v>
+        <v>5912</v>
       </c>
       <c r="J86" s="11">
-        <v>5912</v>
+        <v>3496</v>
       </c>
       <c r="K86" s="11">
-        <v>3496</v>
+        <v>11916</v>
       </c>
       <c r="L86" s="11">
-        <v>11916</v>
+        <v>5810</v>
       </c>
       <c r="M86" s="11">
-        <v>5810</v>
+        <v>0</v>
       </c>
       <c r="N86" s="11">
-        <v>15068</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15465</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>32</v>
       </c>
@@ -3402,37 +3402,37 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>29384</v>
+        <v>39443</v>
       </c>
       <c r="F87" s="9">
-        <v>39443</v>
+        <v>36486</v>
       </c>
       <c r="G87" s="9">
-        <v>36486</v>
+        <v>93710</v>
       </c>
       <c r="H87" s="9">
         <v>93710</v>
       </c>
       <c r="I87" s="9">
-        <v>93710</v>
+        <v>88495</v>
       </c>
       <c r="J87" s="9">
-        <v>88495</v>
+        <v>113956</v>
       </c>
       <c r="K87" s="9">
-        <v>113956</v>
+        <v>121260</v>
       </c>
       <c r="L87" s="9">
-        <v>121260</v>
+        <v>113654</v>
       </c>
       <c r="M87" s="9">
-        <v>113654</v>
+        <v>0</v>
       </c>
       <c r="N87" s="9">
-        <v>82273</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>137393</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>33</v>
       </c>
@@ -3447,31 +3447,31 @@
         <v>25</v>
       </c>
       <c r="G88" s="11">
+        <v>24</v>
+      </c>
+      <c r="H88" s="11">
+        <v>755</v>
+      </c>
+      <c r="I88" s="11">
+        <v>1477</v>
+      </c>
+      <c r="J88" s="11">
         <v>25</v>
       </c>
-      <c r="H88" s="11">
+      <c r="K88" s="11">
         <v>24</v>
-      </c>
-      <c r="I88" s="11">
-        <v>755</v>
-      </c>
-      <c r="J88" s="11">
-        <v>1477</v>
-      </c>
-      <c r="K88" s="11">
-        <v>25</v>
       </c>
       <c r="L88" s="11">
         <v>24</v>
       </c>
       <c r="M88" s="11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N88" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>34</v>
       </c>
@@ -3480,37 +3480,37 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>7749</v>
+        <v>7881</v>
       </c>
       <c r="F89" s="9">
-        <v>7881</v>
+        <v>8706</v>
       </c>
       <c r="G89" s="9">
-        <v>8706</v>
+        <v>2446</v>
       </c>
       <c r="H89" s="9">
-        <v>2446</v>
+        <v>2972</v>
       </c>
       <c r="I89" s="9">
-        <v>2972</v>
+        <v>3134</v>
       </c>
       <c r="J89" s="9">
         <v>3134</v>
       </c>
       <c r="K89" s="9">
-        <v>3134</v>
+        <v>2971</v>
       </c>
       <c r="L89" s="9">
         <v>2971</v>
       </c>
       <c r="M89" s="9">
-        <v>2971</v>
+        <v>0</v>
       </c>
       <c r="N89" s="9">
         <v>2971</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>35</v>
       </c>
@@ -3519,37 +3519,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F90" s="11">
-        <v>67</v>
+        <v>9569</v>
       </c>
       <c r="G90" s="11">
-        <v>9569</v>
+        <v>9570</v>
       </c>
       <c r="H90" s="11">
-        <v>9570</v>
+        <v>9097</v>
       </c>
       <c r="I90" s="11">
-        <v>9097</v>
+        <v>1182</v>
       </c>
       <c r="J90" s="11">
-        <v>1182</v>
+        <v>4949</v>
       </c>
       <c r="K90" s="11">
-        <v>4949</v>
+        <v>16359</v>
       </c>
       <c r="L90" s="11">
-        <v>16359</v>
+        <v>17403</v>
       </c>
       <c r="M90" s="11">
-        <v>17403</v>
+        <v>0</v>
       </c>
       <c r="N90" s="11">
         <v>5766</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>36</v>
       </c>
@@ -3558,37 +3558,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>6261</v>
+        <v>6132</v>
       </c>
       <c r="F91" s="9">
-        <v>6132</v>
+        <v>5692</v>
       </c>
       <c r="G91" s="9">
-        <v>5692</v>
+        <v>897</v>
       </c>
       <c r="H91" s="9">
-        <v>897</v>
+        <v>710</v>
       </c>
       <c r="I91" s="9">
-        <v>710</v>
+        <v>1742</v>
       </c>
       <c r="J91" s="9">
-        <v>1742</v>
+        <v>4661</v>
       </c>
       <c r="K91" s="9">
-        <v>4661</v>
+        <v>4271</v>
       </c>
       <c r="L91" s="9">
-        <v>4271</v>
+        <v>4660</v>
       </c>
       <c r="M91" s="9">
-        <v>4660</v>
+        <v>0</v>
       </c>
       <c r="N91" s="9">
         <v>4660</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>37</v>
       </c>
@@ -3597,74 +3597,74 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>78631</v>
+        <v>69175</v>
       </c>
       <c r="F92" s="11">
-        <v>69175</v>
+        <v>73931</v>
       </c>
       <c r="G92" s="11">
-        <v>73931</v>
+        <v>66374</v>
       </c>
       <c r="H92" s="11">
-        <v>66374</v>
+        <v>65292</v>
       </c>
       <c r="I92" s="11">
-        <v>65292</v>
+        <v>72841</v>
       </c>
       <c r="J92" s="11">
-        <v>72841</v>
+        <v>79423</v>
       </c>
       <c r="K92" s="11">
-        <v>79423</v>
+        <v>47217</v>
       </c>
       <c r="L92" s="11">
-        <v>47217</v>
+        <v>67156</v>
       </c>
       <c r="M92" s="11">
-        <v>67156</v>
+        <v>0</v>
       </c>
       <c r="N92" s="11">
-        <v>79833</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>90883</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>142322</v>
+        <v>141068</v>
       </c>
       <c r="F93" s="15">
-        <v>141068</v>
+        <v>159310</v>
       </c>
       <c r="G93" s="15">
-        <v>159310</v>
+        <v>193329</v>
       </c>
       <c r="H93" s="15">
-        <v>193329</v>
+        <v>189305</v>
       </c>
       <c r="I93" s="15">
-        <v>189305</v>
+        <v>201405</v>
       </c>
       <c r="J93" s="15">
-        <v>201405</v>
+        <v>220190</v>
       </c>
       <c r="K93" s="15">
-        <v>220190</v>
+        <v>214127</v>
       </c>
       <c r="L93" s="15">
-        <v>214127</v>
+        <v>220579</v>
       </c>
       <c r="M93" s="15">
-        <v>220579</v>
+        <v>0</v>
       </c>
       <c r="N93" s="15">
-        <v>199497</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>266134</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3679,7 +3679,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3694,7 +3694,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3709,7 +3709,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>43</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3761,7 +3761,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
@@ -3770,37 +3770,37 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>4530</v>
+        <v>43887</v>
       </c>
       <c r="F99" s="9">
-        <v>43887</v>
+        <v>28687</v>
       </c>
       <c r="G99" s="9">
-        <v>28687</v>
+        <v>22662</v>
       </c>
       <c r="H99" s="9">
-        <v>22662</v>
+        <v>24659</v>
       </c>
       <c r="I99" s="9">
-        <v>24659</v>
+        <v>19205</v>
       </c>
       <c r="J99" s="9">
-        <v>19205</v>
+        <v>28905</v>
       </c>
       <c r="K99" s="9">
-        <v>28905</v>
+        <v>39101</v>
       </c>
       <c r="L99" s="9">
-        <v>39101</v>
+        <v>26858</v>
       </c>
       <c r="M99" s="9">
-        <v>26858</v>
+        <v>51390</v>
       </c>
       <c r="N99" s="9">
-        <v>51390</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38630</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>31</v>
       </c>
@@ -3809,37 +3809,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>6883</v>
+        <v>10708</v>
       </c>
       <c r="F100" s="11">
-        <v>10708</v>
+        <v>3738</v>
       </c>
       <c r="G100" s="11">
-        <v>3738</v>
+        <v>4865</v>
       </c>
       <c r="H100" s="11">
-        <v>4865</v>
+        <v>3897</v>
       </c>
       <c r="I100" s="11">
-        <v>3897</v>
+        <v>7517</v>
       </c>
       <c r="J100" s="11">
-        <v>7517</v>
+        <v>20154</v>
       </c>
       <c r="K100" s="11">
-        <v>20154</v>
+        <v>19805</v>
       </c>
       <c r="L100" s="11">
-        <v>19805</v>
+        <v>17038</v>
       </c>
       <c r="M100" s="11">
-        <v>17038</v>
+        <v>18903</v>
       </c>
       <c r="N100" s="11">
-        <v>18903</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54178</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>32</v>
       </c>
@@ -3848,37 +3848,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>22714</v>
+        <v>13765</v>
       </c>
       <c r="F101" s="9">
-        <v>13765</v>
+        <v>69702</v>
       </c>
       <c r="G101" s="9">
-        <v>69702</v>
+        <v>16137</v>
       </c>
       <c r="H101" s="9">
-        <v>16137</v>
+        <v>0</v>
       </c>
       <c r="I101" s="9">
-        <v>0</v>
+        <v>24733</v>
       </c>
       <c r="J101" s="9">
-        <v>24733</v>
+        <v>54030</v>
       </c>
       <c r="K101" s="9">
-        <v>54030</v>
+        <v>3527</v>
       </c>
       <c r="L101" s="9">
-        <v>3527</v>
+        <v>-1</v>
       </c>
       <c r="M101" s="9">
-        <v>-1</v>
+        <v>122788</v>
       </c>
       <c r="N101" s="9">
-        <v>122788</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-15184</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>33</v>
       </c>
@@ -3887,37 +3887,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="11">
-        <v>1</v>
+        <v>8237</v>
       </c>
       <c r="G102" s="11">
-        <v>8237</v>
+        <v>10950</v>
       </c>
       <c r="H102" s="11">
-        <v>10950</v>
+        <v>-3743</v>
       </c>
       <c r="I102" s="11">
-        <v>-3743</v>
+        <v>3664</v>
       </c>
       <c r="J102" s="11">
-        <v>3664</v>
+        <v>511</v>
       </c>
       <c r="K102" s="11">
-        <v>511</v>
+        <v>5</v>
       </c>
       <c r="L102" s="11">
-        <v>5</v>
+        <v>10268</v>
       </c>
       <c r="M102" s="11">
-        <v>10268</v>
+        <v>16874</v>
       </c>
       <c r="N102" s="11">
-        <v>16874</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>34</v>
       </c>
@@ -3926,16 +3926,16 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>330</v>
+        <v>824</v>
       </c>
       <c r="F103" s="9">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="G103" s="9">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="H103" s="9">
-        <v>794</v>
+        <v>0</v>
       </c>
       <c r="I103" s="9">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>35</v>
       </c>
@@ -3965,37 +3965,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>10580</v>
+        <v>9503</v>
       </c>
       <c r="F104" s="11">
-        <v>9503</v>
+        <v>-10579</v>
       </c>
       <c r="G104" s="11">
-        <v>-10579</v>
+        <v>0</v>
       </c>
       <c r="H104" s="11">
         <v>0</v>
       </c>
       <c r="I104" s="11">
-        <v>0</v>
+        <v>3767</v>
       </c>
       <c r="J104" s="11">
-        <v>3767</v>
+        <v>11410</v>
       </c>
       <c r="K104" s="11">
-        <v>11410</v>
+        <v>4486</v>
       </c>
       <c r="L104" s="11">
-        <v>4486</v>
+        <v>2800</v>
       </c>
       <c r="M104" s="11">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="N104" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9791</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>36</v>
       </c>
@@ -4013,28 +4013,28 @@
         <v>0</v>
       </c>
       <c r="H105" s="9">
-        <v>0</v>
+        <v>3603</v>
       </c>
       <c r="I105" s="9">
-        <v>3603</v>
+        <v>4095</v>
       </c>
       <c r="J105" s="9">
-        <v>4095</v>
+        <v>-390</v>
       </c>
       <c r="K105" s="9">
-        <v>-390</v>
+        <v>389</v>
       </c>
       <c r="L105" s="9">
-        <v>389</v>
+        <v>-389</v>
       </c>
       <c r="M105" s="9">
-        <v>-389</v>
+        <v>0</v>
       </c>
       <c r="N105" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>37</v>
       </c>
@@ -4043,74 +4043,74 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>3748</v>
+        <v>-196</v>
       </c>
       <c r="F106" s="11">
-        <v>-196</v>
+        <v>16321</v>
       </c>
       <c r="G106" s="11">
-        <v>16321</v>
+        <v>4856</v>
       </c>
       <c r="H106" s="11">
-        <v>4856</v>
+        <v>8002</v>
       </c>
       <c r="I106" s="11">
-        <v>8002</v>
+        <v>9866</v>
       </c>
       <c r="J106" s="11">
-        <v>9866</v>
+        <v>50172</v>
       </c>
       <c r="K106" s="11">
-        <v>50172</v>
+        <v>61325</v>
       </c>
       <c r="L106" s="11">
-        <v>61325</v>
+        <v>-11064</v>
       </c>
       <c r="M106" s="11">
-        <v>-11064</v>
+        <v>91675</v>
       </c>
       <c r="N106" s="11">
-        <v>91675</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13380</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>48785</v>
+        <v>78492</v>
       </c>
       <c r="F107" s="15">
-        <v>78492</v>
+        <v>116106</v>
       </c>
       <c r="G107" s="15">
-        <v>116106</v>
+        <v>60264</v>
       </c>
       <c r="H107" s="15">
-        <v>60264</v>
+        <v>36418</v>
       </c>
       <c r="I107" s="15">
-        <v>36418</v>
+        <v>72847</v>
       </c>
       <c r="J107" s="15">
-        <v>72847</v>
+        <v>164792</v>
       </c>
       <c r="K107" s="15">
-        <v>164792</v>
+        <v>128638</v>
       </c>
       <c r="L107" s="15">
-        <v>128638</v>
+        <v>45510</v>
       </c>
       <c r="M107" s="15">
-        <v>45510</v>
+        <v>301630</v>
       </c>
       <c r="N107" s="15">
-        <v>301630</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>106172</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4125,7 +4125,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4140,7 +4140,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4155,7 +4155,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>44</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4207,7 +4207,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>29</v>
       </c>
@@ -4216,37 +4216,37 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>5014</v>
+        <v>39524</v>
       </c>
       <c r="F113" s="9">
-        <v>39524</v>
+        <v>29344</v>
       </c>
       <c r="G113" s="9">
-        <v>29344</v>
+        <v>22664</v>
       </c>
       <c r="H113" s="9">
-        <v>22664</v>
+        <v>9696</v>
       </c>
       <c r="I113" s="9">
-        <v>9696</v>
+        <v>35281</v>
       </c>
       <c r="J113" s="9">
-        <v>35281</v>
+        <v>29274</v>
       </c>
       <c r="K113" s="9">
-        <v>29274</v>
+        <v>40309</v>
       </c>
       <c r="L113" s="9">
-        <v>40309</v>
+        <v>26858</v>
       </c>
       <c r="M113" s="9">
-        <v>26858</v>
+        <v>51391</v>
       </c>
       <c r="N113" s="9">
-        <v>51391</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38629</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>31</v>
       </c>
@@ -4255,37 +4255,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>8260</v>
+        <v>8514</v>
       </c>
       <c r="F114" s="11">
-        <v>8514</v>
+        <v>7608</v>
       </c>
       <c r="G114" s="11">
-        <v>7608</v>
+        <v>8402</v>
       </c>
       <c r="H114" s="11">
-        <v>8402</v>
+        <v>3162</v>
       </c>
       <c r="I114" s="11">
-        <v>3162</v>
+        <v>9933</v>
       </c>
       <c r="J114" s="11">
-        <v>9933</v>
+        <v>11733</v>
       </c>
       <c r="K114" s="11">
-        <v>11733</v>
+        <v>25911</v>
       </c>
       <c r="L114" s="11">
-        <v>25911</v>
+        <v>7778</v>
       </c>
       <c r="M114" s="11">
-        <v>7778</v>
+        <v>18506</v>
       </c>
       <c r="N114" s="11">
-        <v>18506</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40837</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>32</v>
       </c>
@@ -4294,37 +4294,37 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>12655</v>
+        <v>16722</v>
       </c>
       <c r="F115" s="9">
-        <v>16722</v>
+        <v>12478</v>
       </c>
       <c r="G115" s="9">
-        <v>12478</v>
+        <v>16137</v>
       </c>
       <c r="H115" s="9">
-        <v>16137</v>
+        <v>5215</v>
       </c>
       <c r="I115" s="9">
-        <v>5215</v>
+        <v>-728</v>
       </c>
       <c r="J115" s="9">
-        <v>-728</v>
+        <v>5364</v>
       </c>
       <c r="K115" s="9">
-        <v>5364</v>
+        <v>11133</v>
       </c>
       <c r="L115" s="9">
-        <v>11133</v>
+        <v>31636</v>
       </c>
       <c r="M115" s="9">
-        <v>31636</v>
+        <v>67668</v>
       </c>
       <c r="N115" s="9">
-        <v>67668</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-14573</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>33</v>
       </c>
@@ -4333,37 +4333,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="11">
-        <v>1</v>
+        <v>8237</v>
       </c>
       <c r="G116" s="11">
-        <v>8237</v>
+        <v>10219</v>
       </c>
       <c r="H116" s="11">
-        <v>10219</v>
+        <v>-4464</v>
       </c>
       <c r="I116" s="11">
-        <v>-4464</v>
+        <v>5116</v>
       </c>
       <c r="J116" s="11">
-        <v>5116</v>
+        <v>511</v>
       </c>
       <c r="K116" s="11">
-        <v>511</v>
+        <v>5</v>
       </c>
       <c r="L116" s="11">
-        <v>5</v>
+        <v>10268</v>
       </c>
       <c r="M116" s="11">
-        <v>10268</v>
+        <v>16874</v>
       </c>
       <c r="N116" s="11">
-        <v>16874</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>34</v>
       </c>
@@ -4372,19 +4372,19 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>198</v>
+        <v>-1</v>
       </c>
       <c r="F117" s="9">
-        <v>-1</v>
+        <v>6097</v>
       </c>
       <c r="G117" s="9">
-        <v>6097</v>
+        <v>268</v>
       </c>
       <c r="H117" s="9">
-        <v>268</v>
+        <v>1</v>
       </c>
       <c r="I117" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="9">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>35</v>
       </c>
@@ -4411,37 +4411,37 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>10579</v>
+        <v>1</v>
       </c>
       <c r="F118" s="11">
-        <v>1</v>
+        <v>-10580</v>
       </c>
       <c r="G118" s="11">
-        <v>-10580</v>
+        <v>473</v>
       </c>
       <c r="H118" s="11">
-        <v>473</v>
+        <v>7915</v>
       </c>
       <c r="I118" s="11">
-        <v>7915</v>
+        <v>0</v>
       </c>
       <c r="J118" s="11">
         <v>0</v>
       </c>
       <c r="K118" s="11">
-        <v>0</v>
+        <v>3442</v>
       </c>
       <c r="L118" s="11">
-        <v>3442</v>
+        <v>14438</v>
       </c>
       <c r="M118" s="11">
-        <v>14438</v>
+        <v>0</v>
       </c>
       <c r="N118" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12718</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>36</v>
       </c>
@@ -4450,22 +4450,22 @@
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
-        <v>129</v>
+        <v>440</v>
       </c>
       <c r="F119" s="9">
-        <v>440</v>
+        <v>4795</v>
       </c>
       <c r="G119" s="9">
-        <v>4795</v>
+        <v>187</v>
       </c>
       <c r="H119" s="9">
-        <v>187</v>
+        <v>2571</v>
       </c>
       <c r="I119" s="9">
-        <v>2571</v>
+        <v>1176</v>
       </c>
       <c r="J119" s="9">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="K119" s="9">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="N119" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>37</v>
       </c>
@@ -4489,74 +4489,74 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>13386</v>
+        <v>-5134</v>
       </c>
       <c r="F120" s="11">
-        <v>-5134</v>
+        <v>23570</v>
       </c>
       <c r="G120" s="11">
-        <v>23570</v>
+        <v>5938</v>
       </c>
       <c r="H120" s="11">
-        <v>5938</v>
+        <v>453</v>
       </c>
       <c r="I120" s="11">
-        <v>453</v>
+        <v>3284</v>
       </c>
       <c r="J120" s="11">
-        <v>3284</v>
+        <v>120213</v>
       </c>
       <c r="K120" s="11">
-        <v>120213</v>
+        <v>41386</v>
       </c>
       <c r="L120" s="11">
-        <v>41386</v>
+        <v>8600</v>
       </c>
       <c r="M120" s="11">
-        <v>8600</v>
+        <v>80554</v>
       </c>
       <c r="N120" s="11">
-        <v>80554</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19807</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>50221</v>
+        <v>60067</v>
       </c>
       <c r="F121" s="15">
-        <v>60067</v>
+        <v>81549</v>
       </c>
       <c r="G121" s="15">
-        <v>81549</v>
+        <v>64288</v>
       </c>
       <c r="H121" s="15">
-        <v>64288</v>
+        <v>24549</v>
       </c>
       <c r="I121" s="15">
-        <v>24549</v>
+        <v>54062</v>
       </c>
       <c r="J121" s="15">
-        <v>54062</v>
+        <v>167095</v>
       </c>
       <c r="K121" s="15">
-        <v>167095</v>
+        <v>122186</v>
       </c>
       <c r="L121" s="15">
-        <v>122186</v>
+        <v>99578</v>
       </c>
       <c r="M121" s="15">
-        <v>99578</v>
+        <v>234993</v>
       </c>
       <c r="N121" s="15">
-        <v>234993</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>103437</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4571,7 +4571,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4586,7 +4586,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4601,7 +4601,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>45</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4653,7 +4653,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -4662,37 +4662,37 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>7955</v>
+        <v>12317</v>
       </c>
       <c r="F127" s="9">
-        <v>12317</v>
+        <v>11661</v>
       </c>
       <c r="G127" s="9">
-        <v>11661</v>
+        <v>11592</v>
       </c>
       <c r="H127" s="9">
-        <v>11592</v>
+        <v>26622</v>
       </c>
       <c r="I127" s="9">
-        <v>26622</v>
+        <v>10546</v>
       </c>
       <c r="J127" s="9">
-        <v>10546</v>
+        <v>10109</v>
       </c>
       <c r="K127" s="9">
-        <v>10109</v>
+        <v>8901</v>
       </c>
       <c r="L127" s="9">
-        <v>8901</v>
+        <v>8902</v>
       </c>
       <c r="M127" s="9">
+        <v>8972</v>
+      </c>
+      <c r="N127" s="9">
         <v>8902</v>
       </c>
-      <c r="N127" s="9">
-        <v>8972</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>31</v>
       </c>
@@ -4701,37 +4701,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>10390</v>
+        <v>12584</v>
       </c>
       <c r="F128" s="11">
-        <v>12584</v>
+        <v>8714</v>
       </c>
       <c r="G128" s="11">
-        <v>8714</v>
+        <v>5177</v>
       </c>
       <c r="H128" s="11">
-        <v>5177</v>
+        <v>5912</v>
       </c>
       <c r="I128" s="11">
-        <v>5912</v>
+        <v>3496</v>
       </c>
       <c r="J128" s="11">
-        <v>3496</v>
+        <v>11916</v>
       </c>
       <c r="K128" s="11">
-        <v>11916</v>
+        <v>5810</v>
       </c>
       <c r="L128" s="11">
-        <v>5810</v>
+        <v>15068</v>
       </c>
       <c r="M128" s="11">
-        <v>15068</v>
+        <v>15465</v>
       </c>
       <c r="N128" s="11">
-        <v>15465</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28806</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>32</v>
       </c>
@@ -4740,37 +4740,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>39443</v>
+        <v>36486</v>
       </c>
       <c r="F129" s="9">
-        <v>36486</v>
+        <v>93710</v>
       </c>
       <c r="G129" s="9">
         <v>93710</v>
       </c>
       <c r="H129" s="9">
-        <v>93710</v>
+        <v>88495</v>
       </c>
       <c r="I129" s="9">
-        <v>88495</v>
+        <v>113956</v>
       </c>
       <c r="J129" s="9">
-        <v>113956</v>
+        <v>162622</v>
       </c>
       <c r="K129" s="9">
-        <v>162622</v>
+        <v>113654</v>
       </c>
       <c r="L129" s="9">
-        <v>113654</v>
+        <v>82273</v>
       </c>
       <c r="M129" s="9">
-        <v>82273</v>
+        <v>137393</v>
       </c>
       <c r="N129" s="9">
-        <v>137393</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136782</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>33</v>
       </c>
@@ -4785,16 +4785,16 @@
         <v>25</v>
       </c>
       <c r="G130" s="11">
+        <v>755</v>
+      </c>
+      <c r="H130" s="11">
+        <v>1477</v>
+      </c>
+      <c r="I130" s="11">
         <v>25</v>
       </c>
-      <c r="H130" s="11">
-        <v>755</v>
-      </c>
-      <c r="I130" s="11">
-        <v>1477</v>
-      </c>
       <c r="J130" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K130" s="11">
         <v>24</v>
@@ -4806,10 +4806,10 @@
         <v>24</v>
       </c>
       <c r="N130" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>34</v>
       </c>
@@ -4818,22 +4818,22 @@
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
-        <v>7881</v>
+        <v>8706</v>
       </c>
       <c r="F131" s="9">
-        <v>8706</v>
+        <v>2609</v>
       </c>
       <c r="G131" s="9">
-        <v>2609</v>
+        <v>2972</v>
       </c>
       <c r="H131" s="9">
-        <v>2972</v>
+        <v>3134</v>
       </c>
       <c r="I131" s="9">
         <v>3134</v>
       </c>
       <c r="J131" s="9">
-        <v>3134</v>
+        <v>2971</v>
       </c>
       <c r="K131" s="9">
         <v>2971</v>
@@ -4848,7 +4848,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>35</v>
       </c>
@@ -4857,37 +4857,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>67</v>
+        <v>9569</v>
       </c>
       <c r="F132" s="11">
-        <v>9569</v>
+        <v>9570</v>
       </c>
       <c r="G132" s="11">
-        <v>9570</v>
+        <v>9097</v>
       </c>
       <c r="H132" s="11">
-        <v>9097</v>
+        <v>1182</v>
       </c>
       <c r="I132" s="11">
-        <v>1182</v>
+        <v>4949</v>
       </c>
       <c r="J132" s="11">
-        <v>4949</v>
+        <v>16359</v>
       </c>
       <c r="K132" s="11">
-        <v>16359</v>
+        <v>17403</v>
       </c>
       <c r="L132" s="11">
-        <v>17403</v>
+        <v>5766</v>
       </c>
       <c r="M132" s="11">
         <v>5766</v>
       </c>
       <c r="N132" s="11">
-        <v>5766</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>36</v>
       </c>
@@ -4896,25 +4896,25 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>6132</v>
+        <v>5692</v>
       </c>
       <c r="F133" s="9">
-        <v>5692</v>
+        <v>897</v>
       </c>
       <c r="G133" s="9">
-        <v>897</v>
+        <v>710</v>
       </c>
       <c r="H133" s="9">
-        <v>710</v>
+        <v>1742</v>
       </c>
       <c r="I133" s="9">
-        <v>1742</v>
+        <v>4661</v>
       </c>
       <c r="J133" s="9">
-        <v>4661</v>
+        <v>4271</v>
       </c>
       <c r="K133" s="9">
-        <v>4271</v>
+        <v>4660</v>
       </c>
       <c r="L133" s="9">
         <v>4660</v>
@@ -4923,10 +4923,10 @@
         <v>4660</v>
       </c>
       <c r="N133" s="9">
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>37</v>
       </c>
@@ -4935,74 +4935,74 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>69175</v>
+        <v>73931</v>
       </c>
       <c r="F134" s="11">
-        <v>73931</v>
+        <v>66865</v>
       </c>
       <c r="G134" s="11">
-        <v>66865</v>
+        <v>65292</v>
       </c>
       <c r="H134" s="11">
-        <v>65292</v>
+        <v>72841</v>
       </c>
       <c r="I134" s="11">
-        <v>72841</v>
+        <v>79423</v>
       </c>
       <c r="J134" s="11">
-        <v>79423</v>
+        <v>9382</v>
       </c>
       <c r="K134" s="11">
-        <v>9382</v>
+        <v>67156</v>
       </c>
       <c r="L134" s="11">
-        <v>67156</v>
+        <v>79833</v>
       </c>
       <c r="M134" s="11">
-        <v>79833</v>
+        <v>90883</v>
       </c>
       <c r="N134" s="11">
-        <v>90883</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84527</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>141068</v>
+        <v>159310</v>
       </c>
       <c r="F135" s="15">
-        <v>159310</v>
+        <v>194051</v>
       </c>
       <c r="G135" s="15">
-        <v>194051</v>
+        <v>189305</v>
       </c>
       <c r="H135" s="15">
-        <v>189305</v>
+        <v>201405</v>
       </c>
       <c r="I135" s="15">
-        <v>201405</v>
+        <v>220190</v>
       </c>
       <c r="J135" s="15">
-        <v>220190</v>
+        <v>217654</v>
       </c>
       <c r="K135" s="15">
-        <v>217654</v>
+        <v>220579</v>
       </c>
       <c r="L135" s="15">
-        <v>220579</v>
+        <v>199497</v>
       </c>
       <c r="M135" s="15">
-        <v>199497</v>
+        <v>266134</v>
       </c>
       <c r="N135" s="15">
-        <v>266134</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>268869</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5017,7 +5017,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5032,7 +5032,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5047,7 +5047,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>46</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5099,7 +5099,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>29</v>
       </c>
@@ -5108,37 +5108,37 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>79613208</v>
+        <v>78762376</v>
       </c>
       <c r="F141" s="9">
-        <v>78762376</v>
+        <v>92609023</v>
       </c>
       <c r="G141" s="9">
-        <v>92609023</v>
+        <v>92752000</v>
       </c>
       <c r="H141" s="9">
-        <v>92752000</v>
+        <v>92736000</v>
       </c>
       <c r="I141" s="9">
-        <v>92736000</v>
+        <v>211285714</v>
       </c>
       <c r="J141" s="9">
-        <v>211285714</v>
+        <v>96752294</v>
       </c>
       <c r="K141" s="9">
-        <v>96752294</v>
+        <v>95367925</v>
       </c>
       <c r="L141" s="9">
-        <v>95367925</v>
+        <v>93694737</v>
       </c>
       <c r="M141" s="9">
-        <v>93694737</v>
+        <v>93705263</v>
       </c>
       <c r="N141" s="9">
-        <v>93705263</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>94442105</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>31</v>
       </c>
@@ -5147,37 +5147,37 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>236846</v>
+        <v>313112</v>
       </c>
       <c r="F142" s="11">
-        <v>313112</v>
+        <v>373058</v>
       </c>
       <c r="G142" s="11">
-        <v>373058</v>
+        <v>407997</v>
       </c>
       <c r="H142" s="11">
-        <v>407997</v>
+        <v>188824</v>
       </c>
       <c r="I142" s="11">
-        <v>188824</v>
+        <v>245393</v>
       </c>
       <c r="J142" s="11">
-        <v>245393</v>
+        <v>202245</v>
       </c>
       <c r="K142" s="11">
-        <v>202245</v>
+        <v>751751</v>
       </c>
       <c r="L142" s="11">
-        <v>751751</v>
+        <v>297400</v>
       </c>
       <c r="M142" s="11">
-        <v>297400</v>
+        <v>562722</v>
       </c>
       <c r="N142" s="11">
-        <v>562722</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>588179</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>32</v>
       </c>
@@ -5186,37 +5186,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>12638280</v>
+        <v>27718201</v>
       </c>
       <c r="F143" s="9">
-        <v>27718201</v>
+        <v>33658672</v>
       </c>
       <c r="G143" s="9">
-        <v>33658672</v>
+        <v>61610782</v>
       </c>
       <c r="H143" s="9">
         <v>61610782</v>
       </c>
       <c r="I143" s="9">
-        <v>61610782</v>
+        <v>58182117</v>
       </c>
       <c r="J143" s="9">
-        <v>58182117</v>
+        <v>67151444</v>
       </c>
       <c r="K143" s="9">
-        <v>67151444</v>
+        <v>60208540</v>
       </c>
       <c r="L143" s="9">
-        <v>60208540</v>
+        <v>57868635</v>
       </c>
       <c r="M143" s="9">
-        <v>57868635</v>
+        <v>52369828</v>
       </c>
       <c r="N143" s="9">
-        <v>52369828</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67152004</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>33</v>
       </c>
@@ -5231,19 +5231,19 @@
         <v>25000000</v>
       </c>
       <c r="G144" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="H144" s="11">
+        <v>40297</v>
+      </c>
+      <c r="I144" s="11">
+        <v>1477000000</v>
+      </c>
+      <c r="J144" s="11">
         <v>25000000</v>
       </c>
-      <c r="H144" s="11">
+      <c r="K144" s="11">
         <v>24000000</v>
-      </c>
-      <c r="I144" s="11">
-        <v>40297</v>
-      </c>
-      <c r="J144" s="11">
-        <v>1477000000</v>
-      </c>
-      <c r="K144" s="11">
-        <v>25000000</v>
       </c>
       <c r="L144" s="11">
         <v>24000000</v>
@@ -5255,7 +5255,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>34</v>
       </c>
@@ -5264,25 +5264,25 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>3624415</v>
+        <v>3726241</v>
       </c>
       <c r="F145" s="9">
-        <v>3726241</v>
+        <v>3800087</v>
       </c>
       <c r="G145" s="9">
-        <v>3800087</v>
+        <v>2207581</v>
       </c>
       <c r="H145" s="9">
-        <v>2207581</v>
+        <v>2682310</v>
       </c>
       <c r="I145" s="9">
-        <v>2682310</v>
+        <v>2763668</v>
       </c>
       <c r="J145" s="9">
         <v>2763668</v>
       </c>
       <c r="K145" s="9">
-        <v>2763668</v>
+        <v>2681408</v>
       </c>
       <c r="L145" s="9">
         <v>2681408</v>
@@ -5294,7 +5294,7 @@
         <v>2681408</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>35</v>
       </c>
@@ -5305,35 +5305,35 @@
       <c r="E146" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>48</v>
+      <c r="F146" s="11">
+        <v>159483333</v>
       </c>
       <c r="G146" s="11">
-        <v>159483333</v>
+        <v>156885246</v>
       </c>
       <c r="H146" s="11">
-        <v>156885246</v>
+        <v>156844828</v>
       </c>
       <c r="I146" s="11">
-        <v>156844828</v>
+        <v>147750000</v>
       </c>
       <c r="J146" s="11">
-        <v>147750000</v>
+        <v>164966667</v>
       </c>
       <c r="K146" s="11">
-        <v>164966667</v>
+        <v>163590000</v>
       </c>
       <c r="L146" s="11">
-        <v>163590000</v>
+        <v>167336538</v>
       </c>
       <c r="M146" s="11">
-        <v>167336538</v>
+        <v>180187500</v>
       </c>
       <c r="N146" s="11">
         <v>180187500</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>36</v>
       </c>
@@ -5342,28 +5342,28 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>74535714</v>
+        <v>79636364</v>
       </c>
       <c r="F147" s="9">
-        <v>79636364</v>
+        <v>84955224</v>
       </c>
       <c r="G147" s="9">
-        <v>84955224</v>
+        <v>23605263</v>
       </c>
       <c r="H147" s="9">
-        <v>23605263</v>
+        <v>22187500</v>
       </c>
       <c r="I147" s="9">
-        <v>22187500</v>
+        <v>45842105</v>
       </c>
       <c r="J147" s="9">
-        <v>45842105</v>
+        <v>258944444</v>
       </c>
       <c r="K147" s="9">
-        <v>258944444</v>
+        <v>266937500</v>
       </c>
       <c r="L147" s="9">
-        <v>266937500</v>
+        <v>245263158</v>
       </c>
       <c r="M147" s="9">
         <v>245263158</v>
@@ -5372,7 +5372,7 @@
         <v>245263158</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>37</v>
       </c>
@@ -5381,37 +5381,37 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>17729651</v>
+        <v>16185073</v>
       </c>
       <c r="F148" s="11">
-        <v>16185073</v>
+        <v>15888889</v>
       </c>
       <c r="G148" s="11">
-        <v>15888889</v>
+        <v>15486234</v>
       </c>
       <c r="H148" s="11">
-        <v>15486234</v>
+        <v>2617858</v>
       </c>
       <c r="I148" s="11">
-        <v>2617858</v>
+        <v>17098826</v>
       </c>
       <c r="J148" s="11">
-        <v>17098826</v>
+        <v>2492093</v>
       </c>
       <c r="K148" s="11">
-        <v>2492093</v>
+        <v>12264156</v>
       </c>
       <c r="L148" s="11">
-        <v>12264156</v>
+        <v>16096836</v>
       </c>
       <c r="M148" s="11">
-        <v>16096836</v>
+        <v>17784139</v>
       </c>
       <c r="N148" s="11">
-        <v>17784139</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20084641</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5426,7 +5426,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5441,7 +5441,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5456,7 +5456,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
         <v>49</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5508,7 +5508,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>29</v>
       </c>
@@ -5517,37 +5517,37 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
-        <v>20684932</v>
+        <v>189168103</v>
       </c>
       <c r="F154" s="9">
-        <v>189168103</v>
+        <v>127497778</v>
       </c>
       <c r="G154" s="9">
-        <v>127497778</v>
+        <v>127314607</v>
       </c>
       <c r="H154" s="9">
-        <v>127314607</v>
+        <v>137759777</v>
       </c>
       <c r="I154" s="9">
-        <v>137759777</v>
+        <v>190148515</v>
       </c>
       <c r="J154" s="9">
-        <v>190148515</v>
+        <v>193993289</v>
       </c>
       <c r="K154" s="9">
-        <v>193993289</v>
+        <v>232744048</v>
       </c>
       <c r="L154" s="9">
-        <v>232744048</v>
+        <v>235596491</v>
       </c>
       <c r="M154" s="9">
-        <v>235596491</v>
+        <v>250682927</v>
       </c>
       <c r="N154" s="9">
-        <v>250682927</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>297153846</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>31</v>
       </c>
@@ -5556,37 +5556,37 @@
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
-        <v>424798</v>
+        <v>430957</v>
       </c>
       <c r="F155" s="11">
-        <v>430957</v>
+        <v>359700</v>
       </c>
       <c r="G155" s="11">
-        <v>359700</v>
+        <v>143978</v>
       </c>
       <c r="H155" s="11">
-        <v>143978</v>
+        <v>295945</v>
       </c>
       <c r="I155" s="11">
-        <v>295945</v>
+        <v>931590</v>
       </c>
       <c r="J155" s="11">
-        <v>931590</v>
+        <v>1477674</v>
       </c>
       <c r="K155" s="11">
-        <v>1477674</v>
+        <v>824041</v>
       </c>
       <c r="L155" s="11">
-        <v>824041</v>
+        <v>2565577</v>
       </c>
       <c r="M155" s="11">
-        <v>2565577</v>
+        <v>1362477</v>
       </c>
       <c r="N155" s="11">
-        <v>1362477</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3020797</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>32</v>
       </c>
@@ -5595,37 +5595,37 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>54600962</v>
+        <v>45730897</v>
       </c>
       <c r="F156" s="9">
-        <v>45730897</v>
+        <v>127893578</v>
       </c>
       <c r="G156" s="9">
-        <v>127893578</v>
-      </c>
-      <c r="H156" s="9">
         <v>80283582</v>
       </c>
-      <c r="I156" s="9" t="s">
+      <c r="H156" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="I156" s="9">
+        <v>89612319</v>
+      </c>
       <c r="J156" s="9">
-        <v>89612319</v>
+        <v>73112314</v>
       </c>
       <c r="K156" s="9">
-        <v>73112314</v>
-      </c>
-      <c r="L156" s="9">
         <v>37126316</v>
       </c>
-      <c r="M156" s="9" t="s">
+      <c r="L156" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="M156" s="9">
+        <v>78408685</v>
+      </c>
       <c r="N156" s="9">
-        <v>78408685</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>194666667</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>33</v>
       </c>
@@ -5636,35 +5636,35 @@
       <c r="E157" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F157" s="11" t="s">
-        <v>48</v>
+      <c r="F157" s="11">
+        <v>54698</v>
       </c>
       <c r="G157" s="11">
-        <v>54698</v>
+        <v>97355</v>
       </c>
       <c r="H157" s="11">
-        <v>97355</v>
+        <v>33334</v>
       </c>
       <c r="I157" s="11">
-        <v>33334</v>
+        <v>38978723</v>
       </c>
       <c r="J157" s="11">
-        <v>38978723</v>
+        <v>39307692</v>
       </c>
       <c r="K157" s="11">
-        <v>39307692</v>
+        <v>51020</v>
       </c>
       <c r="L157" s="11">
-        <v>51020</v>
+        <v>66862</v>
       </c>
       <c r="M157" s="11">
-        <v>66862</v>
+        <v>104999</v>
       </c>
       <c r="N157" s="11">
-        <v>104999</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>104997</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>34</v>
       </c>
@@ -5673,16 +5673,16 @@
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
-        <v>4285714</v>
-      </c>
-      <c r="F158" s="9">
         <v>4681818</v>
       </c>
-      <c r="G158" s="9" t="s">
+      <c r="F158" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H158" s="9">
+      <c r="G158" s="9">
         <v>7490566</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>48</v>
@@ -5703,7 +5703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>35</v>
       </c>
@@ -5711,38 +5711,38 @@
         <v>47</v>
       </c>
       <c r="D159" s="11"/>
-      <c r="E159" s="11" t="s">
+      <c r="E159" s="11">
+        <v>158383333</v>
+      </c>
+      <c r="F159" s="11">
+        <v>81376923</v>
+      </c>
+      <c r="G159" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F159" s="11">
-        <v>158383333</v>
-      </c>
-      <c r="G159" s="11">
-        <v>81376923</v>
       </c>
       <c r="H159" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I159" s="11" t="s">
+      <c r="I159" s="11">
+        <v>171227273</v>
+      </c>
+      <c r="J159" s="11">
+        <v>163000000</v>
+      </c>
+      <c r="K159" s="11">
+        <v>179440000</v>
+      </c>
+      <c r="L159" s="11">
+        <v>200000000</v>
+      </c>
+      <c r="M159" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J159" s="11">
-        <v>171227273</v>
-      </c>
-      <c r="K159" s="11">
-        <v>163000000</v>
-      </c>
-      <c r="L159" s="11">
-        <v>179440000</v>
-      </c>
-      <c r="M159" s="11">
-        <v>200000000</v>
-      </c>
-      <c r="N159" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N159" s="11">
+        <v>195820000</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>36</v>
       </c>
@@ -5759,20 +5759,20 @@
       <c r="G160" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H160" s="9" t="s">
+      <c r="H160" s="9">
+        <v>180150000</v>
+      </c>
+      <c r="I160" s="9">
+        <v>1365000000</v>
+      </c>
+      <c r="J160" s="9">
+        <v>130000000</v>
+      </c>
+      <c r="K160" s="9">
+        <v>129666667</v>
+      </c>
+      <c r="L160" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="I160" s="9">
-        <v>180150000</v>
-      </c>
-      <c r="J160" s="9">
-        <v>1365000000</v>
-      </c>
-      <c r="K160" s="9">
-        <v>130000000</v>
-      </c>
-      <c r="L160" s="9">
-        <v>129666667</v>
       </c>
       <c r="M160" s="9" t="s">
         <v>48</v>
@@ -5781,7 +5781,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>37</v>
       </c>
@@ -5790,37 +5790,37 @@
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="11">
-        <v>4537530</v>
+        <v>-171179</v>
       </c>
       <c r="F161" s="11">
-        <v>-171179</v>
+        <v>-19000000</v>
       </c>
       <c r="G161" s="11">
-        <v>-19000000</v>
+        <v>76298</v>
       </c>
       <c r="H161" s="11">
-        <v>76298</v>
+        <v>-405083</v>
       </c>
       <c r="I161" s="11">
-        <v>-405083</v>
+        <v>356495</v>
       </c>
       <c r="J161" s="11">
-        <v>356495</v>
+        <v>-739008</v>
       </c>
       <c r="K161" s="11">
-        <v>-739008</v>
+        <v>5596879</v>
       </c>
       <c r="L161" s="11">
-        <v>5596879</v>
+        <v>1822435</v>
       </c>
       <c r="M161" s="11">
-        <v>-1822435</v>
+        <v>25130208</v>
       </c>
       <c r="N161" s="11">
-        <v>25130208</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2936787</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5835,7 +5835,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5850,7 +5850,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5865,7 +5865,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
         <v>50</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5917,7 +5917,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>29</v>
       </c>
@@ -5926,37 +5926,37 @@
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
-        <v>22383929</v>
+        <v>197620000</v>
       </c>
       <c r="F167" s="9">
-        <v>197620000</v>
+        <v>126482759</v>
       </c>
       <c r="G167" s="9">
-        <v>126482759</v>
+        <v>127325843</v>
       </c>
       <c r="H167" s="9">
-        <v>127325843</v>
+        <v>54167598</v>
       </c>
       <c r="I167" s="9">
-        <v>54167598</v>
+        <v>298991525</v>
       </c>
       <c r="J167" s="9">
-        <v>298991525</v>
+        <v>193867550</v>
       </c>
       <c r="K167" s="9">
-        <v>193867550</v>
+        <v>225189944</v>
       </c>
       <c r="L167" s="9">
-        <v>225189944</v>
+        <v>235596491</v>
       </c>
       <c r="M167" s="9">
-        <v>235596491</v>
+        <v>250687805</v>
       </c>
       <c r="N167" s="9">
-        <v>250687805</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>297146154</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>31</v>
       </c>
@@ -5965,37 +5965,37 @@
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
-        <v>252584</v>
+        <v>350399</v>
       </c>
       <c r="F168" s="11">
-        <v>350399</v>
+        <v>334168</v>
       </c>
       <c r="G168" s="11">
-        <v>334168</v>
+        <v>302982</v>
       </c>
       <c r="H168" s="11">
-        <v>302982</v>
+        <v>191729</v>
       </c>
       <c r="I168" s="11">
-        <v>191729</v>
+        <v>667765</v>
       </c>
       <c r="J168" s="11">
-        <v>667765</v>
+        <v>776403</v>
       </c>
       <c r="K168" s="11">
-        <v>776403</v>
+        <v>1273330</v>
       </c>
       <c r="L168" s="11">
-        <v>1273330</v>
+        <v>1178306</v>
       </c>
       <c r="M168" s="11">
-        <v>1178306</v>
+        <v>1288898</v>
       </c>
       <c r="N168" s="11">
-        <v>1288898</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2256313</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>32</v>
       </c>
@@ -6004,37 +6004,37 @@
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
-        <v>9601669</v>
+        <v>26128125</v>
       </c>
       <c r="F169" s="9">
-        <v>26128125</v>
+        <v>115537037</v>
       </c>
       <c r="G169" s="9">
-        <v>115537037</v>
+        <v>80283582</v>
       </c>
       <c r="H169" s="9">
-        <v>80283582</v>
+        <v>130375000</v>
       </c>
       <c r="I169" s="9">
-        <v>130375000</v>
+        <v>-7280000</v>
       </c>
       <c r="J169" s="9">
-        <v>-7280000</v>
+        <v>-38314286</v>
       </c>
       <c r="K169" s="9">
-        <v>-38314286</v>
+        <v>76779310</v>
       </c>
       <c r="L169" s="9">
-        <v>76779310</v>
+        <v>80704082</v>
       </c>
       <c r="M169" s="9">
-        <v>80704082</v>
+        <v>62023831</v>
       </c>
       <c r="N169" s="9">
-        <v>62023831</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>167505747</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>33</v>
       </c>
@@ -6045,35 +6045,35 @@
       <c r="E170" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F170" s="11" t="s">
-        <v>48</v>
+      <c r="F170" s="11">
+        <v>54698</v>
       </c>
       <c r="G170" s="11">
-        <v>54698</v>
+        <v>109014</v>
       </c>
       <c r="H170" s="11">
-        <v>109014</v>
+        <v>47716</v>
       </c>
       <c r="I170" s="11">
-        <v>47716</v>
+        <v>54425532</v>
       </c>
       <c r="J170" s="11">
-        <v>54425532</v>
+        <v>39307692</v>
       </c>
       <c r="K170" s="11">
-        <v>39307692</v>
+        <v>51020</v>
       </c>
       <c r="L170" s="11">
-        <v>51020</v>
+        <v>66862</v>
       </c>
       <c r="M170" s="11">
-        <v>66862</v>
+        <v>104999</v>
       </c>
       <c r="N170" s="11">
-        <v>104999</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>105017</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>34</v>
       </c>
@@ -6081,17 +6081,17 @@
         <v>47</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9">
-        <v>1980000</v>
-      </c>
-      <c r="F171" s="9" t="s">
+      <c r="E171" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="F171" s="9">
+        <v>5269663</v>
+      </c>
       <c r="G171" s="9">
-        <v>5269663</v>
-      </c>
-      <c r="H171" s="9">
         <v>2528302</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="I171" s="9" t="s">
         <v>48</v>
@@ -6112,7 +6112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>35</v>
       </c>
@@ -6123,35 +6123,35 @@
       <c r="E172" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F172" s="11" t="s">
+      <c r="F172" s="11">
+        <v>80763359</v>
+      </c>
+      <c r="G172" s="11">
+        <v>157666667</v>
+      </c>
+      <c r="H172" s="11">
+        <v>158300000</v>
+      </c>
+      <c r="I172" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="G172" s="11">
-        <v>80763359</v>
-      </c>
-      <c r="H172" s="11">
-        <v>157666667</v>
-      </c>
-      <c r="I172" s="11">
-        <v>158300000</v>
       </c>
       <c r="J172" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K172" s="11" t="s">
+      <c r="K172" s="11">
+        <v>163904762</v>
+      </c>
+      <c r="L172" s="11">
+        <v>167883721</v>
+      </c>
+      <c r="M172" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L172" s="11">
-        <v>163904762</v>
-      </c>
-      <c r="M172" s="11">
-        <v>167883721</v>
-      </c>
-      <c r="N172" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N172" s="11">
+        <v>192696970</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>36</v>
       </c>
@@ -6160,22 +6160,22 @@
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
-        <v>18428571</v>
+        <v>44000000</v>
       </c>
       <c r="F173" s="9">
-        <v>44000000</v>
+        <v>159833333</v>
       </c>
       <c r="G173" s="9">
-        <v>159833333</v>
+        <v>31166667</v>
       </c>
       <c r="H173" s="9">
-        <v>31166667</v>
+        <v>197769231</v>
       </c>
       <c r="I173" s="9">
-        <v>197769231</v>
-      </c>
-      <c r="J173" s="9">
         <v>51130435</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="K173" s="9" t="s">
         <v>48</v>
@@ -6186,11 +6186,11 @@
       <c r="M173" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N173" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N173" s="9">
+        <v>160250000</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>37</v>
       </c>
@@ -6199,37 +6199,37 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>13562310</v>
+        <v>-6702350</v>
       </c>
       <c r="F174" s="11">
-        <v>-6702350</v>
+        <v>-50579399</v>
       </c>
       <c r="G174" s="11">
-        <v>-50579399</v>
+        <v>138125</v>
       </c>
       <c r="H174" s="11">
-        <v>138125</v>
+        <v>502775</v>
       </c>
       <c r="I174" s="11">
-        <v>502775</v>
+        <v>50523077</v>
       </c>
       <c r="J174" s="11">
-        <v>50523077</v>
+        <v>-3049853</v>
       </c>
       <c r="K174" s="11">
-        <v>-3049853</v>
+        <v>3891490</v>
       </c>
       <c r="L174" s="11">
-        <v>3891490</v>
+        <v>1383749</v>
       </c>
       <c r="M174" s="11">
-        <v>1383749</v>
+        <v>22301772</v>
       </c>
       <c r="N174" s="11">
-        <v>22301772</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4416276</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6244,7 +6244,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6259,7 +6259,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6274,7 +6274,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
         <v>51</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -6326,7 +6326,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>29</v>
       </c>
@@ -6343,29 +6343,29 @@
       <c r="G180" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H180" s="9" t="s">
-        <v>48</v>
+      <c r="H180" s="9">
+        <v>211285714</v>
       </c>
       <c r="I180" s="9">
-        <v>211285714</v>
+        <v>96752294</v>
       </c>
       <c r="J180" s="9">
-        <v>96752294</v>
+        <v>95367925</v>
       </c>
       <c r="K180" s="9">
-        <v>95367925</v>
+        <v>93694737</v>
       </c>
       <c r="L180" s="9">
-        <v>93694737</v>
+        <v>93705263</v>
       </c>
       <c r="M180" s="9">
+        <v>94442105</v>
+      </c>
+      <c r="N180" s="9">
         <v>93705263</v>
       </c>
-      <c r="N180" s="9">
-        <v>94442105</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>31</v>
       </c>
@@ -6382,29 +6382,29 @@
       <c r="G181" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H181" s="11" t="s">
-        <v>48</v>
+      <c r="H181" s="11">
+        <v>245393</v>
       </c>
       <c r="I181" s="11">
-        <v>245393</v>
+        <v>202245</v>
       </c>
       <c r="J181" s="11">
-        <v>202245</v>
+        <v>751751</v>
       </c>
       <c r="K181" s="11">
-        <v>751751</v>
+        <v>297400</v>
       </c>
       <c r="L181" s="11">
-        <v>297400</v>
+        <v>562722</v>
       </c>
       <c r="M181" s="11">
-        <v>562722</v>
+        <v>588179</v>
       </c>
       <c r="N181" s="11">
-        <v>588179</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1102453</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>32</v>
       </c>
@@ -6421,29 +6421,29 @@
       <c r="G182" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H182" s="9" t="s">
-        <v>48</v>
+      <c r="H182" s="9">
+        <v>58182117</v>
       </c>
       <c r="I182" s="9">
-        <v>58182117</v>
+        <v>67151444</v>
       </c>
       <c r="J182" s="9">
-        <v>67151444</v>
+        <v>63129658</v>
       </c>
       <c r="K182" s="9">
-        <v>63129658</v>
+        <v>57868635</v>
       </c>
       <c r="L182" s="9">
-        <v>57868635</v>
+        <v>52369828</v>
       </c>
       <c r="M182" s="9">
-        <v>52369828</v>
+        <v>67152004</v>
       </c>
       <c r="N182" s="9">
-        <v>67152004</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67148748</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>33</v>
       </c>
@@ -6460,14 +6460,14 @@
       <c r="G183" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H183" s="11" t="s">
-        <v>48</v>
+      <c r="H183" s="11">
+        <v>1477000000</v>
       </c>
       <c r="I183" s="11">
-        <v>1477000000</v>
+        <v>25000000</v>
       </c>
       <c r="J183" s="11">
-        <v>25000000</v>
+        <v>24000000</v>
       </c>
       <c r="K183" s="11">
         <v>24000000</v>
@@ -6479,10 +6479,10 @@
         <v>24000000</v>
       </c>
       <c r="N183" s="11">
-        <v>24000000</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>34</v>
       </c>
@@ -6499,14 +6499,14 @@
       <c r="G184" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H184" s="9" t="s">
-        <v>48</v>
+      <c r="H184" s="9">
+        <v>2763668</v>
       </c>
       <c r="I184" s="9">
         <v>2763668</v>
       </c>
       <c r="J184" s="9">
-        <v>2763668</v>
+        <v>2681408</v>
       </c>
       <c r="K184" s="9">
         <v>2681408</v>
@@ -6521,7 +6521,7 @@
         <v>2681408</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>35</v>
       </c>
@@ -6538,29 +6538,29 @@
       <c r="G185" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H185" s="11" t="s">
-        <v>48</v>
+      <c r="H185" s="11">
+        <v>147750000</v>
       </c>
       <c r="I185" s="11">
-        <v>147750000</v>
+        <v>164966667</v>
       </c>
       <c r="J185" s="11">
-        <v>164966667</v>
+        <v>163590000</v>
       </c>
       <c r="K185" s="11">
-        <v>163590000</v>
+        <v>167336538</v>
       </c>
       <c r="L185" s="11">
-        <v>167336538</v>
+        <v>180187500</v>
       </c>
       <c r="M185" s="11">
         <v>180187500</v>
       </c>
       <c r="N185" s="11">
-        <v>180187500</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+        <v>177437500</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
         <v>36</v>
       </c>
@@ -6577,17 +6577,17 @@
       <c r="G186" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H186" s="9" t="s">
-        <v>48</v>
+      <c r="H186" s="9">
+        <v>45842105</v>
       </c>
       <c r="I186" s="9">
-        <v>45842105</v>
+        <v>258944444</v>
       </c>
       <c r="J186" s="9">
-        <v>258944444</v>
+        <v>266937500</v>
       </c>
       <c r="K186" s="9">
-        <v>266937500</v>
+        <v>245263158</v>
       </c>
       <c r="L186" s="9">
         <v>245263158</v>
@@ -6596,10 +6596,10 @@
         <v>245263158</v>
       </c>
       <c r="N186" s="9">
-        <v>245263158</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+        <v>267933333</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>37</v>
       </c>
@@ -6616,29 +6616,29 @@
       <c r="G187" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H187" s="11" t="s">
-        <v>48</v>
+      <c r="H187" s="11">
+        <v>17098826</v>
       </c>
       <c r="I187" s="11">
-        <v>17098826</v>
+        <v>2492093</v>
       </c>
       <c r="J187" s="11">
-        <v>2492093</v>
+        <v>2773278</v>
       </c>
       <c r="K187" s="11">
-        <v>2773278</v>
+        <v>16096836</v>
       </c>
       <c r="L187" s="11">
-        <v>16096836</v>
+        <v>17784139</v>
       </c>
       <c r="M187" s="11">
-        <v>17784139</v>
+        <v>20084641</v>
       </c>
       <c r="N187" s="11">
-        <v>20084641</v>
-      </c>
-    </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18391427</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6653,7 +6653,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -6668,7 +6668,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -6683,7 +6683,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B191" s="7" t="s">
         <v>52</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6735,7 +6735,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>53</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>54</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>55</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>56</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>57</v>
       </c>
@@ -6920,118 +6920,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11">
-        <v>24313</v>
+        <v>12552</v>
       </c>
       <c r="F198" s="11">
-        <v>12552</v>
+        <v>18346</v>
       </c>
       <c r="G198" s="11">
-        <v>18346</v>
+        <v>37763</v>
       </c>
       <c r="H198" s="11">
-        <v>37763</v>
+        <v>104503</v>
       </c>
       <c r="I198" s="11">
-        <v>104503</v>
+        <v>16305</v>
       </c>
       <c r="J198" s="11">
-        <v>16305</v>
+        <v>103017</v>
       </c>
       <c r="K198" s="11">
-        <v>103017</v>
+        <v>71096</v>
       </c>
       <c r="L198" s="11">
-        <v>71096</v>
+        <v>221254</v>
       </c>
       <c r="M198" s="11">
-        <v>221254</v>
+        <v>311726</v>
       </c>
       <c r="N198" s="11">
-        <v>311726</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-14304</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9">
-        <v>72</v>
+        <v>1940</v>
       </c>
       <c r="F199" s="9">
-        <v>1940</v>
+        <v>1647</v>
       </c>
       <c r="G199" s="9">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="H199" s="9">
         <v>1636</v>
       </c>
       <c r="I199" s="9">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="J199" s="9">
-        <v>1638</v>
+        <v>2692</v>
       </c>
       <c r="K199" s="9">
-        <v>2692</v>
+        <v>2252</v>
       </c>
       <c r="L199" s="9">
-        <v>2252</v>
+        <v>75639</v>
       </c>
       <c r="M199" s="9">
-        <v>75639</v>
+        <v>47572</v>
       </c>
       <c r="N199" s="9">
-        <v>47572</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+        <v>61788</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11">
-        <v>46192</v>
+        <v>67562</v>
       </c>
       <c r="F200" s="11">
-        <v>67562</v>
+        <v>74082</v>
       </c>
       <c r="G200" s="11">
-        <v>74082</v>
+        <v>56292</v>
       </c>
       <c r="H200" s="11">
-        <v>56292</v>
+        <v>89050</v>
       </c>
       <c r="I200" s="11">
-        <v>89050</v>
+        <v>38646</v>
       </c>
       <c r="J200" s="11">
-        <v>38646</v>
+        <v>147344</v>
       </c>
       <c r="K200" s="11">
-        <v>147344</v>
+        <v>169223</v>
       </c>
       <c r="L200" s="11">
-        <v>169223</v>
+        <v>119693</v>
       </c>
       <c r="M200" s="11">
-        <v>119693</v>
+        <v>38008</v>
       </c>
       <c r="N200" s="11">
-        <v>38008</v>
-      </c>
-    </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+        <v>189794</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>61</v>
       </c>
@@ -7068,81 +7068,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11">
-        <v>98732</v>
+        <v>98701</v>
       </c>
       <c r="F202" s="11">
-        <v>98701</v>
+        <v>129547</v>
       </c>
       <c r="G202" s="11">
-        <v>129547</v>
+        <v>195920</v>
       </c>
       <c r="H202" s="11">
-        <v>195920</v>
+        <v>52353</v>
       </c>
       <c r="I202" s="11">
-        <v>52353</v>
+        <v>236874</v>
       </c>
       <c r="J202" s="11">
-        <v>236874</v>
+        <v>16447</v>
       </c>
       <c r="K202" s="11">
-        <v>16447</v>
+        <v>196799</v>
       </c>
       <c r="L202" s="11">
-        <v>196799</v>
+        <v>91729</v>
       </c>
       <c r="M202" s="11">
-        <v>91729</v>
+        <v>230194</v>
       </c>
       <c r="N202" s="11">
-        <v>230194</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+        <v>169862</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15">
-        <v>169309</v>
+        <v>180755</v>
       </c>
       <c r="F203" s="15">
-        <v>180755</v>
+        <v>223622</v>
       </c>
       <c r="G203" s="15">
-        <v>223622</v>
+        <v>291611</v>
       </c>
       <c r="H203" s="15">
-        <v>291611</v>
+        <v>247542</v>
       </c>
       <c r="I203" s="15">
-        <v>247542</v>
+        <v>293463</v>
       </c>
       <c r="J203" s="15">
-        <v>293463</v>
+        <v>269500</v>
       </c>
       <c r="K203" s="15">
-        <v>269500</v>
+        <v>439370</v>
       </c>
       <c r="L203" s="15">
-        <v>439370</v>
+        <v>508315</v>
       </c>
       <c r="M203" s="15">
-        <v>508315</v>
+        <v>627500</v>
       </c>
       <c r="N203" s="15">
-        <v>627500</v>
-      </c>
-    </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+        <v>407140</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7157,7 +7157,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -7172,7 +7172,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -7187,7 +7187,7 @@
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B207" s="7" t="s">
         <v>63</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7219,7 +7219,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>64</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>66</v>
       </c>
@@ -7257,7 +7257,7 @@
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>68</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="10" t="s">
         <v>70</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>72</v>
       </c>
@@ -7298,7 +7298,7 @@
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
         <v>74</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>72</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>72</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>78</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>80</v>
       </c>
@@ -7353,7 +7353,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>82</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
         <v>83</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>85</v>
       </c>
@@ -7386,7 +7386,7 @@
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
         <v>87</v>
       </c>
